--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9732309D-0767-4044-B792-D76A780EBD9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC489F-89FA-46EE-A2A3-CF4D1378118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="23" state="hidden" r:id="rId2"/>
-    <sheet name="Nablarchを使用した開発の流れ" sheetId="22" r:id="rId3"/>
+    <sheet name="Flow of Nablarch Development" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Nablarchを使用した開発の流れ!$A$1:$DO$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Flow of Nablarch Development'!$A$1:$DO$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,9 +98,6 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Flow of Development Using Nablarch</t>
-  </si>
-  <si>
     <t>Environment construction</t>
   </si>
   <si>
@@ -124,6 +123,10 @@
   </si>
   <si>
     <t>- AP server construction, application deployment</t>
+  </si>
+  <si>
+    <t>Flow of Development Using Nablarch</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -684,6 +687,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -801,87 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -940,8 +943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -41892,55 +41895,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41948,51 +41951,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="46" t="str">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="73" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -42000,43 +42003,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -42073,1190 +42076,1034 @@
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49" t="s">
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="77"/>
     </row>
     <row r="8" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
     <row r="9" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
     <row r="10" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43280,6 +43127,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43303,7 +43306,7 @@
   <sheetData>
     <row r="1" spans="2:50" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B1" s="31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AS1" s="33"/>
       <c r="AX1" s="33"/>
@@ -43405,7 +43408,7 @@
     <row r="96" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
@@ -43646,7 +43649,7 @@
     <row r="99" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="38"/>
       <c r="C99" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -43668,7 +43671,7 @@
       <c r="V99" s="39"/>
       <c r="W99" s="39"/>
       <c r="X99" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y99" s="39"/>
       <c r="Z99" s="39"/>
@@ -43697,7 +43700,7 @@
       <c r="AW99" s="39"/>
       <c r="AX99" s="39"/>
       <c r="AY99" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ99" s="39"/>
       <c r="BA99" s="39"/>
@@ -43718,7 +43721,7 @@
       <c r="BP99" s="39"/>
       <c r="BQ99" s="39"/>
       <c r="BT99" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BU99" s="39"/>
       <c r="BV99" s="39"/>
@@ -43755,7 +43758,7 @@
       <c r="DA99" s="39"/>
       <c r="DB99" s="39"/>
       <c r="DC99" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DD99" s="39"/>
       <c r="DE99" s="39"/>
@@ -43771,7 +43774,7 @@
     <row r="100" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="38"/>
       <c r="C100" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -43877,7 +43880,7 @@
       <c r="DB100" s="39"/>
       <c r="DC100" s="39"/>
       <c r="DD100" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DE100" s="39"/>
       <c r="DG100" s="39"/>
@@ -43996,7 +43999,7 @@
       <c r="DB101" s="39"/>
       <c r="DC101" s="39"/>
       <c r="DD101" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DE101" s="39"/>
       <c r="DG101" s="39"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC489F-89FA-46EE-A2A3-CF4D1378118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7E9E8-F369-433E-B403-1B203E002648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" state="hidden" r:id="rId1"/>
@@ -687,87 +687,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -885,6 +804,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -943,8 +943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3026,39 +3026,19 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="メイリオ"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>PG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>UT</a:t>
+            <a:t>Programming Unit testing</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8469,8 +8449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16553893" y="1906279"/>
-          <a:ext cx="860048" cy="861574"/>
+          <a:off x="17647587" y="1904037"/>
+          <a:ext cx="927284" cy="875022"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
@@ -8680,8 +8660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6415368" y="12031756"/>
-          <a:ext cx="522662" cy="328894"/>
+          <a:off x="6836709" y="12166226"/>
+          <a:ext cx="563004" cy="333377"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -10396,8 +10376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16361590" y="12003642"/>
-          <a:ext cx="1628944" cy="518417"/>
+          <a:off x="17441837" y="12135871"/>
+          <a:ext cx="1736520" cy="517521"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
@@ -28701,8 +28681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12063131" y="12031755"/>
-          <a:ext cx="522663" cy="328894"/>
+          <a:off x="12860990" y="12166225"/>
+          <a:ext cx="563004" cy="333377"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -41240,42 +41220,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="16"/>
+    <col min="1" max="16384" width="8.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -41283,12 +41263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -41299,42 +41279,42 @@
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="20"/>
       <c r="G32" s="22"/>
       <c r="H32" s="20"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="20"/>
       <c r="H33" s="20"/>
       <c r="J33" s="24"/>
@@ -41344,7 +41324,7 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="20"/>
       <c r="H34" s="20"/>
       <c r="J34" s="23"/>
@@ -41357,515 +41337,515 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -41889,61 +41869,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41951,51 +41931,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="46" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -42003,43 +41983,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -42076,1034 +42056,1190 @@
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43127,162 +43263,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43300,18 +43280,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="3.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:50" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
       <c r="AS1" s="33"/>
       <c r="AX1" s="33"/>
     </row>
-    <row r="2" spans="2:50" s="32" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:50" s="32" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7E9E8-F369-433E-B403-1B203E002648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A971EC5-A689-4C58-B802-88A91CBDA46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="6360" windowWidth="27210" windowHeight="7845" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" state="hidden" r:id="rId1"/>
@@ -687,6 +687,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -804,87 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -943,8 +943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8496300" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -8449,8 +8449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="17647587" y="1904037"/>
-          <a:ext cx="927284" cy="875022"/>
+          <a:off x="16553893" y="1906279"/>
+          <a:ext cx="860048" cy="861574"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
@@ -8660,8 +8660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6836709" y="12166226"/>
-          <a:ext cx="563004" cy="333377"/>
+          <a:off x="6415368" y="12031756"/>
+          <a:ext cx="522662" cy="328894"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -9215,7 +9215,7 @@
       <xdr:rowOff>73702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
+      <xdr:col>91</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>72118</xdr:rowOff>
@@ -9235,8 +9235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18888156" y="1997752"/>
-          <a:ext cx="580944" cy="341316"/>
+          <a:off x="17433072" y="2169202"/>
+          <a:ext cx="787693" cy="334592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10376,8 +10376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17441837" y="12135871"/>
-          <a:ext cx="1736520" cy="517521"/>
+          <a:off x="16361590" y="12003642"/>
+          <a:ext cx="1628944" cy="518417"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
@@ -23879,13 +23879,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>157921</xdr:colOff>
+      <xdr:colOff>113097</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>139972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>156358</xdr:rowOff>
     </xdr:to>
@@ -23904,8 +23904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15426496" y="13274947"/>
-          <a:ext cx="3080580" cy="359286"/>
+          <a:off x="15509979" y="13665472"/>
+          <a:ext cx="3107474" cy="352562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24649,17 +24649,6 @@
             </a:rPr>
             <a:t>that reflect PJ requirements for the terms and guides provided as </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="900">
               <a:solidFill>
@@ -27973,7 +27962,33 @@
               <a:ea typeface="メイリオ"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> (terms and guides reflecting </a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(terms and guides reflecting </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="900" kern="1200">
@@ -28681,8 +28696,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12860990" y="12166225"/>
-          <a:ext cx="563004" cy="333377"/>
+          <a:off x="12063131" y="12031755"/>
+          <a:ext cx="522663" cy="328894"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -35370,17 +35385,6 @@
             </a:rPr>
             <a:t>that reflect PJ requirements in the format provided as </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="900">
               <a:solidFill>
@@ -41220,42 +41224,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="16"/>
+    <col min="1" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -41263,12 +41267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -41279,42 +41283,42 @@
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="20"/>
       <c r="G31" s="22"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="20"/>
       <c r="G32" s="22"/>
       <c r="H32" s="20"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="20"/>
       <c r="H33" s="20"/>
       <c r="J33" s="24"/>
@@ -41324,7 +41328,7 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="20"/>
       <c r="H34" s="20"/>
       <c r="J34" s="23"/>
@@ -41337,515 +41341,515 @@
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="28"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="28"/>
       <c r="R36" s="27"/>
       <c r="S36" s="28"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -41869,61 +41873,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41931,51 +41935,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="46" t="str">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="73" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -41983,43 +41987,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -42056,1190 +42060,1034 @@
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49" t="s">
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="77"/>
     </row>
     <row r="8" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
     <row r="9" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
     <row r="10" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43263,6 +43111,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43280,18 +43284,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" style="44" customWidth="1"/>
     <col min="2" max="16384" width="3.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:50" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
       <c r="AS1" s="33"/>
       <c r="AX1" s="33"/>
     </row>
-    <row r="2" spans="2:50" s="32" customFormat="1" ht="3.9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:50" s="32" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43735,9 +43739,7 @@
       <c r="CX99" s="39"/>
       <c r="CY99" s="39"/>
       <c r="CZ99" s="39"/>
-      <c r="DA99" s="39"/>
-      <c r="DB99" s="39"/>
-      <c r="DC99" s="39" t="s">
+      <c r="DA99" s="39" t="s">
         <v>26</v>
       </c>
       <c r="DD99" s="39"/>
@@ -43857,9 +43859,7 @@
       <c r="CY100" s="39"/>
       <c r="CZ100" s="39"/>
       <c r="DA100" s="39"/>
-      <c r="DB100" s="39"/>
-      <c r="DC100" s="39"/>
-      <c r="DD100" s="39" t="s">
+      <c r="DB100" s="39" t="s">
         <v>28</v>
       </c>
       <c r="DE100" s="39"/>
@@ -43976,9 +43976,7 @@
       <c r="CY101" s="39"/>
       <c r="CZ101" s="39"/>
       <c r="DA101" s="39"/>
-      <c r="DB101" s="39"/>
-      <c r="DC101" s="39"/>
-      <c r="DD101" s="39" t="s">
+      <c r="DB101" s="39" t="s">
         <v>29</v>
       </c>
       <c r="DE101" s="39"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A971EC5-A689-4C58-B802-88A91CBDA46B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2CC80-173D-40CA-B9EF-A734E638CA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="6360" windowWidth="27210" windowHeight="7845" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2505" windowWidth="17760" windowHeight="10260" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="24" state="hidden" r:id="rId1"/>
-    <sheet name="変更履歴" sheetId="23" state="hidden" r:id="rId2"/>
+    <sheet name="Cover" sheetId="24" r:id="rId1"/>
+    <sheet name="Revision history" sheetId="23" r:id="rId2"/>
     <sheet name="Flow of Nablarch Development" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Flow of Nablarch Development'!$A$1:$DO$102</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,66 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>第１．０版</t>
-  </si>
-  <si>
-    <t>PJ名</t>
-  </si>
-  <si>
-    <t>成果物名</t>
-  </si>
-  <si>
-    <t>Nablarchを使用した開発の流れ</t>
-  </si>
-  <si>
-    <t>作成</t>
-  </si>
-  <si>
-    <t>システム名</t>
-  </si>
-  <si>
-    <t>変更</t>
-  </si>
-  <si>
-    <t>サブシステム名</t>
-  </si>
-  <si>
-    <t>変更履歴（ 1　/ 1 ）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>版数</t>
-  </si>
-  <si>
-    <t>変更日</t>
-  </si>
-  <si>
-    <t>区分</t>
-  </si>
-  <si>
-    <t>変更箇所（項番等）</t>
-  </si>
-  <si>
-    <t>変更内容</t>
-  </si>
-  <si>
-    <t>担当者</t>
-  </si>
-  <si>
-    <t>1.0版</t>
-  </si>
-  <si>
-    <t>新規</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>(新規作成)</t>
   </si>
   <si>
     <t>TIS</t>
@@ -128,6 +74,127 @@
     <t>Flow of Development Using Nablarch</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>Version No.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Revision date</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>classification</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Changes(item numbers, etc.)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Revision details</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Person in charge</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(New creation)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version 1.0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Project name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>System name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Sub-system name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Deliverable name</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Prepared by</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Changes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>Revision history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Version 1.0</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +204,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -245,6 +312,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -572,45 +654,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,206 +729,240 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1004,24 +1083,21 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" sz="1100" u="none" strike="noStrike">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:latin typeface="ＭＳ 明朝"/>
-                <a:ea typeface="ＭＳ 明朝"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>関係者外秘</a:t>
+              <a:t>CONFIDENTIAL</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" sz="1050"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="1100"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP" sz="1050"/>
+            <a:endParaRPr lang="ja-JP" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1080,24 +1156,21 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" sz="1000" u="none" strike="noStrike">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:latin typeface="ＭＳ 明朝"/>
-                <a:ea typeface="ＭＳ 明朝"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>PJ関係者限り</a:t>
+              <a:t>PROJECT PERSONNEL ONLY</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" sz="1050"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="1100"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP" sz="1050"/>
+            <a:endParaRPr lang="ja-JP" sz="1050">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1169,8 +1242,9 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Nablarch</a:t>
           </a:r>
@@ -1181,7 +1255,11 @@
               <a:spcPts val="2100"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1800"/>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
@@ -1194,21 +1272,20 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> Nablarch</a:t>
+            <a:t> Flow of Development Using Nablarch</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" sz="1800" b="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>を使用した開発の流れ</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1800" b="1" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8449,8 +8526,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16553893" y="1906279"/>
-          <a:ext cx="860048" cy="861574"/>
+          <a:off x="16417181" y="1918605"/>
+          <a:ext cx="851644" cy="881745"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
@@ -8660,8 +8737,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6415368" y="12031756"/>
-          <a:ext cx="522662" cy="328894"/>
+          <a:off x="6362700" y="12249150"/>
+          <a:ext cx="517620" cy="335618"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -10376,8 +10453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16361590" y="12003642"/>
-          <a:ext cx="1628944" cy="518417"/>
+          <a:off x="16226559" y="12217674"/>
+          <a:ext cx="1615497" cy="528503"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
@@ -28696,8 +28773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12063131" y="12031755"/>
-          <a:ext cx="522663" cy="328894"/>
+          <a:off x="11963399" y="12249149"/>
+          <a:ext cx="517620" cy="335618"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -41226,15 +41303,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="16"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41256,125 +41333,125 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="J23" s="6" t="s">
-        <v>0</v>
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="J23" s="44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="45">
-        <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="110">
+        <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43677</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F32" s="20"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-      <c r="J32" s="23"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="5"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="J33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="F33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="J34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
+      <c r="F34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="8"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="28"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="29"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="14"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41873,1221 +41950,1379 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="27" width="4.83203125" style="42"/>
+    <col min="28" max="28" width="5.6640625" style="42" customWidth="1"/>
+    <col min="29" max="16384" width="4.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>1</v>
+    <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
-        <v>2</v>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="62" t="s">
+        <v>25</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
-        <v>3</v>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="71" t="s">
+        <v>12</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
-        <v>4</v>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="53" t="s">
+        <v>26</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="80" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="45">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="2"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
-        <v>5</v>
+    <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>23</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
-        <v>6</v>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="53" t="s">
+        <v>27</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="45" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
     </row>
-    <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
-        <v>7</v>
+    <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>24</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="5" t="s">
-        <v>8</v>
+    <row r="5" spans="1:40" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="5"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+    <row r="6" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>9</v>
+    <row r="7" spans="1:40" s="39" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
+      <c r="B7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+    <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>16</v>
+      <c r="B8" s="95" t="s">
+        <v>21</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
-        <v>17</v>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100" t="s">
+        <v>20</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
-        <v>18</v>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
+        <v>1</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
-        <v>20</v>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="103" t="s">
+        <v>2</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="105"/>
     </row>
-    <row r="9" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+    <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
     </row>
-    <row r="10" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+    <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
     </row>
-    <row r="11" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+    <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
     </row>
-    <row r="12" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+    <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
     </row>
-    <row r="13" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+    <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
     </row>
-    <row r="14" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+    <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
     </row>
-    <row r="15" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+    <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
     </row>
-    <row r="16" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+    <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="91"/>
     </row>
-    <row r="17" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+    <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="91"/>
     </row>
-    <row r="18" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+    <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="91"/>
     </row>
-    <row r="19" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+    <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="91"/>
     </row>
-    <row r="20" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+    <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="91"/>
     </row>
-    <row r="21" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+    <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="41"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="91"/>
     </row>
-    <row r="22" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+    <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="91"/>
     </row>
-    <row r="23" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+    <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="91"/>
     </row>
-    <row r="24" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+    <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="91"/>
     </row>
-    <row r="25" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+    <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="91"/>
     </row>
-    <row r="26" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+    <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="91"/>
     </row>
-    <row r="27" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+    <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="91"/>
     </row>
-    <row r="28" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+    <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="91"/>
     </row>
-    <row r="29" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+    <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="91"/>
     </row>
-    <row r="30" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+    <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="41"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="91"/>
     </row>
-    <row r="31" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+    <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="91"/>
     </row>
-    <row r="32" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+    <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="91"/>
     </row>
-    <row r="33" spans="1:35" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+    <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="91"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K34" s="15"/>
+    <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43111,162 +43346,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43280,833 +43359,835 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="44" customWidth="1"/>
-    <col min="2" max="16384" width="3.5" style="44"/>
+    <col min="1" max="1" width="1.1640625" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="3.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="31" t="s">
-        <v>30</v>
+    <row r="1" spans="2:50" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="AS1" s="33"/>
-      <c r="AX1" s="33"/>
+      <c r="AS1" s="18"/>
+      <c r="AX1" s="18"/>
     </row>
-    <row r="2" spans="2:50" s="32" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:50" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="34" t="s">
-        <v>21</v>
+    <row r="2" spans="2:50" s="17" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="19" t="s">
+        <v>3</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
-      <c r="AC97" s="35"/>
-      <c r="AD97" s="35"/>
-      <c r="AE97" s="35"/>
-      <c r="AF97" s="35"/>
-      <c r="AG97" s="35"/>
-      <c r="AH97" s="35"/>
-      <c r="AI97" s="35"/>
-      <c r="AJ97" s="35"/>
-      <c r="AK97" s="35"/>
-      <c r="AL97" s="35"/>
-      <c r="AM97" s="35"/>
-      <c r="AN97" s="35"/>
-      <c r="AO97" s="35"/>
-      <c r="AP97" s="35"/>
-      <c r="AQ97" s="35"/>
-      <c r="AR97" s="35"/>
-      <c r="AS97" s="35"/>
-      <c r="AT97" s="35"/>
-      <c r="AU97" s="35"/>
-      <c r="AV97" s="35"/>
-      <c r="AW97" s="35"/>
-      <c r="AX97" s="35"/>
-      <c r="AY97" s="35"/>
-      <c r="AZ97" s="35"/>
-      <c r="BA97" s="35"/>
-      <c r="BB97" s="35"/>
-      <c r="BC97" s="35"/>
-      <c r="BD97" s="35"/>
-      <c r="BE97" s="35"/>
-      <c r="BF97" s="35"/>
-      <c r="BG97" s="35"/>
-      <c r="BH97" s="35"/>
-      <c r="BI97" s="35"/>
-      <c r="BJ97" s="35"/>
-      <c r="BK97" s="35"/>
-      <c r="BL97" s="35"/>
-      <c r="BM97" s="35"/>
-      <c r="BN97" s="35"/>
-      <c r="BO97" s="35"/>
-      <c r="BP97" s="35"/>
-      <c r="BQ97" s="35"/>
-      <c r="BR97" s="35"/>
-      <c r="BS97" s="35"/>
-      <c r="BT97" s="35"/>
-      <c r="BU97" s="35"/>
-      <c r="BV97" s="35"/>
-      <c r="BW97" s="35"/>
-      <c r="BX97" s="35"/>
-      <c r="BY97" s="35"/>
-      <c r="BZ97" s="35"/>
-      <c r="CA97" s="35"/>
-      <c r="CB97" s="35"/>
-      <c r="CC97" s="35"/>
-      <c r="CD97" s="35"/>
-      <c r="CE97" s="35"/>
-      <c r="CF97" s="35"/>
-      <c r="CG97" s="35"/>
-      <c r="CH97" s="35"/>
-      <c r="CI97" s="35"/>
-      <c r="CJ97" s="35"/>
-      <c r="CK97" s="35"/>
-      <c r="CL97" s="35"/>
-      <c r="CM97" s="35"/>
-      <c r="CN97" s="35"/>
-      <c r="CO97" s="35"/>
-      <c r="CP97" s="35"/>
-      <c r="CQ97" s="35"/>
-      <c r="CR97" s="35"/>
-      <c r="CS97" s="35"/>
-      <c r="CT97" s="35"/>
-      <c r="CU97" s="35"/>
-      <c r="CV97" s="35"/>
-      <c r="CW97" s="35"/>
-      <c r="CX97" s="35"/>
-      <c r="CY97" s="35"/>
-      <c r="CZ97" s="35"/>
-      <c r="DA97" s="35"/>
-      <c r="DB97" s="35"/>
-      <c r="DC97" s="35"/>
-      <c r="DD97" s="35"/>
-      <c r="DE97" s="35"/>
-      <c r="DF97" s="35"/>
-      <c r="DG97" s="35"/>
-      <c r="DH97" s="35"/>
-      <c r="DI97" s="35"/>
-      <c r="DJ97" s="35"/>
-      <c r="DK97" s="35"/>
-      <c r="DL97" s="35"/>
-      <c r="DM97" s="35"/>
-      <c r="DN97" s="36"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="20"/>
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="20"/>
+      <c r="AL97" s="20"/>
+      <c r="AM97" s="20"/>
+      <c r="AN97" s="20"/>
+      <c r="AO97" s="20"/>
+      <c r="AP97" s="20"/>
+      <c r="AQ97" s="20"/>
+      <c r="AR97" s="20"/>
+      <c r="AS97" s="20"/>
+      <c r="AT97" s="20"/>
+      <c r="AU97" s="20"/>
+      <c r="AV97" s="20"/>
+      <c r="AW97" s="20"/>
+      <c r="AX97" s="20"/>
+      <c r="AY97" s="20"/>
+      <c r="AZ97" s="20"/>
+      <c r="BA97" s="20"/>
+      <c r="BB97" s="20"/>
+      <c r="BC97" s="20"/>
+      <c r="BD97" s="20"/>
+      <c r="BE97" s="20"/>
+      <c r="BF97" s="20"/>
+      <c r="BG97" s="20"/>
+      <c r="BH97" s="20"/>
+      <c r="BI97" s="20"/>
+      <c r="BJ97" s="20"/>
+      <c r="BK97" s="20"/>
+      <c r="BL97" s="20"/>
+      <c r="BM97" s="20"/>
+      <c r="BN97" s="20"/>
+      <c r="BO97" s="20"/>
+      <c r="BP97" s="20"/>
+      <c r="BQ97" s="20"/>
+      <c r="BR97" s="20"/>
+      <c r="BS97" s="20"/>
+      <c r="BT97" s="20"/>
+      <c r="BU97" s="20"/>
+      <c r="BV97" s="20"/>
+      <c r="BW97" s="20"/>
+      <c r="BX97" s="20"/>
+      <c r="BY97" s="20"/>
+      <c r="BZ97" s="20"/>
+      <c r="CA97" s="20"/>
+      <c r="CB97" s="20"/>
+      <c r="CC97" s="20"/>
+      <c r="CD97" s="20"/>
+      <c r="CE97" s="20"/>
+      <c r="CF97" s="20"/>
+      <c r="CG97" s="20"/>
+      <c r="CH97" s="20"/>
+      <c r="CI97" s="20"/>
+      <c r="CJ97" s="20"/>
+      <c r="CK97" s="20"/>
+      <c r="CL97" s="20"/>
+      <c r="CM97" s="20"/>
+      <c r="CN97" s="20"/>
+      <c r="CO97" s="20"/>
+      <c r="CP97" s="20"/>
+      <c r="CQ97" s="20"/>
+      <c r="CR97" s="20"/>
+      <c r="CS97" s="20"/>
+      <c r="CT97" s="20"/>
+      <c r="CU97" s="20"/>
+      <c r="CV97" s="20"/>
+      <c r="CW97" s="20"/>
+      <c r="CX97" s="20"/>
+      <c r="CY97" s="20"/>
+      <c r="CZ97" s="20"/>
+      <c r="DA97" s="20"/>
+      <c r="DB97" s="20"/>
+      <c r="DC97" s="20"/>
+      <c r="DD97" s="20"/>
+      <c r="DE97" s="20"/>
+      <c r="DF97" s="20"/>
+      <c r="DG97" s="20"/>
+      <c r="DH97" s="20"/>
+      <c r="DI97" s="20"/>
+      <c r="DJ97" s="20"/>
+      <c r="DK97" s="20"/>
+      <c r="DL97" s="20"/>
+      <c r="DM97" s="20"/>
+      <c r="DN97" s="21"/>
     </row>
-    <row r="98" spans="2:118" s="37" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="38"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
-      <c r="X98" s="39"/>
-      <c r="Y98" s="39"/>
-      <c r="Z98" s="39"/>
-      <c r="AA98" s="39"/>
-      <c r="AB98" s="39"/>
-      <c r="AC98" s="39"/>
-      <c r="AD98" s="39"/>
-      <c r="AE98" s="39"/>
-      <c r="AF98" s="39"/>
-      <c r="AG98" s="39"/>
-      <c r="AH98" s="39"/>
-      <c r="AI98" s="39"/>
-      <c r="AJ98" s="39"/>
-      <c r="AK98" s="39"/>
-      <c r="AL98" s="39"/>
-      <c r="AM98" s="39"/>
-      <c r="AN98" s="39"/>
-      <c r="AO98" s="39"/>
-      <c r="AP98" s="39"/>
-      <c r="AQ98" s="39"/>
-      <c r="AR98" s="39"/>
-      <c r="AS98" s="39"/>
-      <c r="AT98" s="39"/>
-      <c r="AU98" s="39"/>
-      <c r="AV98" s="39"/>
-      <c r="AW98" s="39"/>
-      <c r="AX98" s="39"/>
-      <c r="AY98" s="39"/>
-      <c r="AZ98" s="39"/>
-      <c r="BA98" s="39"/>
-      <c r="BB98" s="39"/>
-      <c r="BC98" s="39"/>
-      <c r="BD98" s="39"/>
-      <c r="BE98" s="39"/>
-      <c r="BF98" s="39"/>
-      <c r="BG98" s="39"/>
-      <c r="BH98" s="39"/>
-      <c r="BI98" s="39"/>
-      <c r="BJ98" s="39"/>
-      <c r="BK98" s="39"/>
-      <c r="BL98" s="39"/>
-      <c r="BM98" s="39"/>
-      <c r="BN98" s="39"/>
-      <c r="BO98" s="39"/>
-      <c r="BP98" s="39"/>
-      <c r="BQ98" s="39"/>
-      <c r="BR98" s="39"/>
-      <c r="BS98" s="39"/>
-      <c r="BT98" s="39"/>
-      <c r="BU98" s="39"/>
-      <c r="BV98" s="39"/>
-      <c r="BW98" s="39"/>
-      <c r="BX98" s="39"/>
-      <c r="BY98" s="39"/>
-      <c r="BZ98" s="39"/>
-      <c r="CA98" s="39"/>
-      <c r="CB98" s="39"/>
-      <c r="CC98" s="39"/>
-      <c r="CD98" s="39"/>
-      <c r="CE98" s="39"/>
-      <c r="CF98" s="39"/>
-      <c r="CG98" s="39"/>
-      <c r="CH98" s="39"/>
-      <c r="CI98" s="39"/>
-      <c r="CJ98" s="39"/>
-      <c r="CK98" s="39"/>
-      <c r="CL98" s="39"/>
-      <c r="CM98" s="39"/>
-      <c r="CN98" s="39"/>
-      <c r="CO98" s="39"/>
-      <c r="CP98" s="39"/>
-      <c r="CQ98" s="39"/>
-      <c r="CR98" s="39"/>
-      <c r="CS98" s="39"/>
-      <c r="CT98" s="39"/>
-      <c r="CU98" s="39"/>
-      <c r="CV98" s="39"/>
-      <c r="CW98" s="39"/>
-      <c r="CX98" s="39"/>
-      <c r="CY98" s="39"/>
-      <c r="CZ98" s="39"/>
-      <c r="DA98" s="39"/>
-      <c r="DB98" s="39"/>
-      <c r="DC98" s="39"/>
-      <c r="DD98" s="39"/>
-      <c r="DE98" s="39"/>
-      <c r="DF98" s="39"/>
-      <c r="DG98" s="39"/>
-      <c r="DH98" s="39"/>
-      <c r="DI98" s="39"/>
-      <c r="DJ98" s="39"/>
-      <c r="DK98" s="39"/>
-      <c r="DL98" s="39"/>
-      <c r="DM98" s="39"/>
-      <c r="DN98" s="40"/>
+    <row r="98" spans="2:118" s="22" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="24"/>
+      <c r="U98" s="24"/>
+      <c r="V98" s="24"/>
+      <c r="W98" s="24"/>
+      <c r="X98" s="24"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="24"/>
+      <c r="AB98" s="24"/>
+      <c r="AC98" s="24"/>
+      <c r="AD98" s="24"/>
+      <c r="AE98" s="24"/>
+      <c r="AF98" s="24"/>
+      <c r="AG98" s="24"/>
+      <c r="AH98" s="24"/>
+      <c r="AI98" s="24"/>
+      <c r="AJ98" s="24"/>
+      <c r="AK98" s="24"/>
+      <c r="AL98" s="24"/>
+      <c r="AM98" s="24"/>
+      <c r="AN98" s="24"/>
+      <c r="AO98" s="24"/>
+      <c r="AP98" s="24"/>
+      <c r="AQ98" s="24"/>
+      <c r="AR98" s="24"/>
+      <c r="AS98" s="24"/>
+      <c r="AT98" s="24"/>
+      <c r="AU98" s="24"/>
+      <c r="AV98" s="24"/>
+      <c r="AW98" s="24"/>
+      <c r="AX98" s="24"/>
+      <c r="AY98" s="24"/>
+      <c r="AZ98" s="24"/>
+      <c r="BA98" s="24"/>
+      <c r="BB98" s="24"/>
+      <c r="BC98" s="24"/>
+      <c r="BD98" s="24"/>
+      <c r="BE98" s="24"/>
+      <c r="BF98" s="24"/>
+      <c r="BG98" s="24"/>
+      <c r="BH98" s="24"/>
+      <c r="BI98" s="24"/>
+      <c r="BJ98" s="24"/>
+      <c r="BK98" s="24"/>
+      <c r="BL98" s="24"/>
+      <c r="BM98" s="24"/>
+      <c r="BN98" s="24"/>
+      <c r="BO98" s="24"/>
+      <c r="BP98" s="24"/>
+      <c r="BQ98" s="24"/>
+      <c r="BR98" s="24"/>
+      <c r="BS98" s="24"/>
+      <c r="BT98" s="24"/>
+      <c r="BU98" s="24"/>
+      <c r="BV98" s="24"/>
+      <c r="BW98" s="24"/>
+      <c r="BX98" s="24"/>
+      <c r="BY98" s="24"/>
+      <c r="BZ98" s="24"/>
+      <c r="CA98" s="24"/>
+      <c r="CB98" s="24"/>
+      <c r="CC98" s="24"/>
+      <c r="CD98" s="24"/>
+      <c r="CE98" s="24"/>
+      <c r="CF98" s="24"/>
+      <c r="CG98" s="24"/>
+      <c r="CH98" s="24"/>
+      <c r="CI98" s="24"/>
+      <c r="CJ98" s="24"/>
+      <c r="CK98" s="24"/>
+      <c r="CL98" s="24"/>
+      <c r="CM98" s="24"/>
+      <c r="CN98" s="24"/>
+      <c r="CO98" s="24"/>
+      <c r="CP98" s="24"/>
+      <c r="CQ98" s="24"/>
+      <c r="CR98" s="24"/>
+      <c r="CS98" s="24"/>
+      <c r="CT98" s="24"/>
+      <c r="CU98" s="24"/>
+      <c r="CV98" s="24"/>
+      <c r="CW98" s="24"/>
+      <c r="CX98" s="24"/>
+      <c r="CY98" s="24"/>
+      <c r="CZ98" s="24"/>
+      <c r="DA98" s="24"/>
+      <c r="DB98" s="24"/>
+      <c r="DC98" s="24"/>
+      <c r="DD98" s="24"/>
+      <c r="DE98" s="24"/>
+      <c r="DF98" s="24"/>
+      <c r="DG98" s="24"/>
+      <c r="DH98" s="24"/>
+      <c r="DI98" s="24"/>
+      <c r="DJ98" s="24"/>
+      <c r="DK98" s="24"/>
+      <c r="DL98" s="24"/>
+      <c r="DM98" s="24"/>
+      <c r="DN98" s="25"/>
     </row>
-    <row r="99" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="38"/>
-      <c r="C99" s="39" t="s">
-        <v>22</v>
+    <row r="99" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="23"/>
+      <c r="C99" s="24" t="s">
+        <v>4</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="39" t="s">
-        <v>23</v>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="24"/>
+      <c r="U99" s="24"/>
+      <c r="V99" s="24"/>
+      <c r="W99" s="24"/>
+      <c r="X99" s="24" t="s">
+        <v>5</v>
       </c>
-      <c r="Y99" s="39"/>
-      <c r="Z99" s="39"/>
-      <c r="AA99" s="39"/>
-      <c r="AB99" s="39"/>
-      <c r="AC99" s="39"/>
-      <c r="AD99" s="39"/>
-      <c r="AE99" s="39"/>
-      <c r="AF99" s="39"/>
-      <c r="AG99" s="39"/>
-      <c r="AH99" s="39"/>
-      <c r="AI99" s="39"/>
-      <c r="AJ99" s="39"/>
-      <c r="AK99" s="39"/>
-      <c r="AL99" s="39"/>
-      <c r="AM99" s="39"/>
-      <c r="AN99" s="39"/>
-      <c r="AO99" s="39"/>
-      <c r="AP99" s="39"/>
-      <c r="AQ99" s="39"/>
-      <c r="AR99" s="39"/>
-      <c r="AS99" s="39"/>
-      <c r="AT99" s="39"/>
-      <c r="AU99" s="39"/>
-      <c r="AV99" s="39"/>
-      <c r="AW99" s="39"/>
-      <c r="AX99" s="39"/>
-      <c r="AY99" s="39" t="s">
-        <v>24</v>
+      <c r="Y99" s="24"/>
+      <c r="Z99" s="24"/>
+      <c r="AA99" s="24"/>
+      <c r="AB99" s="24"/>
+      <c r="AC99" s="24"/>
+      <c r="AD99" s="24"/>
+      <c r="AE99" s="24"/>
+      <c r="AF99" s="24"/>
+      <c r="AG99" s="24"/>
+      <c r="AH99" s="24"/>
+      <c r="AI99" s="24"/>
+      <c r="AJ99" s="24"/>
+      <c r="AK99" s="24"/>
+      <c r="AL99" s="24"/>
+      <c r="AM99" s="24"/>
+      <c r="AN99" s="24"/>
+      <c r="AO99" s="24"/>
+      <c r="AP99" s="24"/>
+      <c r="AQ99" s="24"/>
+      <c r="AR99" s="24"/>
+      <c r="AS99" s="24"/>
+      <c r="AT99" s="24"/>
+      <c r="AU99" s="24"/>
+      <c r="AV99" s="24"/>
+      <c r="AW99" s="24"/>
+      <c r="AX99" s="24"/>
+      <c r="AY99" s="24" t="s">
+        <v>6</v>
       </c>
-      <c r="AZ99" s="39"/>
-      <c r="BA99" s="39"/>
-      <c r="BB99" s="39"/>
-      <c r="BC99" s="39"/>
-      <c r="BD99" s="39"/>
-      <c r="BE99" s="39"/>
-      <c r="BF99" s="39"/>
-      <c r="BG99" s="39"/>
-      <c r="BH99" s="39"/>
-      <c r="BI99" s="39"/>
-      <c r="BJ99" s="39"/>
-      <c r="BK99" s="39"/>
-      <c r="BL99" s="39"/>
-      <c r="BM99" s="39"/>
-      <c r="BN99" s="39"/>
-      <c r="BO99" s="39"/>
-      <c r="BP99" s="39"/>
-      <c r="BQ99" s="39"/>
-      <c r="BT99" s="39" t="s">
-        <v>25</v>
+      <c r="AZ99" s="24"/>
+      <c r="BA99" s="24"/>
+      <c r="BB99" s="24"/>
+      <c r="BC99" s="24"/>
+      <c r="BD99" s="24"/>
+      <c r="BE99" s="24"/>
+      <c r="BF99" s="24"/>
+      <c r="BG99" s="24"/>
+      <c r="BH99" s="24"/>
+      <c r="BI99" s="24"/>
+      <c r="BJ99" s="24"/>
+      <c r="BK99" s="24"/>
+      <c r="BL99" s="24"/>
+      <c r="BM99" s="24"/>
+      <c r="BN99" s="24"/>
+      <c r="BO99" s="24"/>
+      <c r="BP99" s="24"/>
+      <c r="BQ99" s="24"/>
+      <c r="BT99" s="24" t="s">
+        <v>7</v>
       </c>
-      <c r="BU99" s="39"/>
-      <c r="BV99" s="39"/>
-      <c r="BW99" s="39"/>
-      <c r="BX99" s="39"/>
-      <c r="BY99" s="39"/>
-      <c r="BZ99" s="39"/>
-      <c r="CA99" s="39"/>
-      <c r="CB99" s="39"/>
-      <c r="CC99" s="39"/>
-      <c r="CD99" s="39"/>
-      <c r="CE99" s="39"/>
-      <c r="CF99" s="39"/>
-      <c r="CG99" s="39"/>
-      <c r="CH99" s="39"/>
-      <c r="CI99" s="39"/>
-      <c r="CJ99" s="39"/>
-      <c r="CK99" s="39"/>
-      <c r="CL99" s="39"/>
-      <c r="CM99" s="39"/>
-      <c r="CN99" s="39"/>
-      <c r="CO99" s="39"/>
-      <c r="CP99" s="39"/>
-      <c r="CQ99" s="39"/>
-      <c r="CR99" s="39"/>
-      <c r="CS99" s="39"/>
-      <c r="CT99" s="39"/>
-      <c r="CU99" s="39"/>
-      <c r="CV99" s="39"/>
-      <c r="CW99" s="39"/>
-      <c r="CX99" s="39"/>
-      <c r="CY99" s="39"/>
-      <c r="CZ99" s="39"/>
-      <c r="DA99" s="39" t="s">
-        <v>26</v>
+      <c r="BU99" s="24"/>
+      <c r="BV99" s="24"/>
+      <c r="BW99" s="24"/>
+      <c r="BX99" s="24"/>
+      <c r="BY99" s="24"/>
+      <c r="BZ99" s="24"/>
+      <c r="CA99" s="24"/>
+      <c r="CB99" s="24"/>
+      <c r="CC99" s="24"/>
+      <c r="CD99" s="24"/>
+      <c r="CE99" s="24"/>
+      <c r="CF99" s="24"/>
+      <c r="CG99" s="24"/>
+      <c r="CH99" s="24"/>
+      <c r="CI99" s="24"/>
+      <c r="CJ99" s="24"/>
+      <c r="CK99" s="24"/>
+      <c r="CL99" s="24"/>
+      <c r="CM99" s="24"/>
+      <c r="CN99" s="24"/>
+      <c r="CO99" s="24"/>
+      <c r="CP99" s="24"/>
+      <c r="CQ99" s="24"/>
+      <c r="CR99" s="24"/>
+      <c r="CS99" s="24"/>
+      <c r="CT99" s="24"/>
+      <c r="CU99" s="24"/>
+      <c r="CV99" s="24"/>
+      <c r="CW99" s="24"/>
+      <c r="CX99" s="24"/>
+      <c r="CY99" s="24"/>
+      <c r="CZ99" s="24"/>
+      <c r="DA99" s="24" t="s">
+        <v>8</v>
       </c>
-      <c r="DD99" s="39"/>
-      <c r="DE99" s="39"/>
-      <c r="DG99" s="39"/>
-      <c r="DH99" s="39"/>
-      <c r="DI99" s="39"/>
-      <c r="DJ99" s="39"/>
-      <c r="DK99" s="39"/>
-      <c r="DL99" s="39"/>
-      <c r="DM99" s="39"/>
-      <c r="DN99" s="40"/>
+      <c r="DD99" s="24"/>
+      <c r="DE99" s="24"/>
+      <c r="DG99" s="24"/>
+      <c r="DH99" s="24"/>
+      <c r="DI99" s="24"/>
+      <c r="DJ99" s="24"/>
+      <c r="DK99" s="24"/>
+      <c r="DL99" s="24"/>
+      <c r="DM99" s="24"/>
+      <c r="DN99" s="25"/>
     </row>
-    <row r="100" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="38"/>
-      <c r="C100" s="39" t="s">
-        <v>27</v>
+    <row r="100" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="23"/>
+      <c r="C100" s="24" t="s">
+        <v>9</v>
       </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
-      <c r="Z100" s="39"/>
-      <c r="AA100" s="39"/>
-      <c r="AB100" s="39"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="39"/>
-      <c r="AI100" s="39"/>
-      <c r="AJ100" s="39"/>
-      <c r="AK100" s="39"/>
-      <c r="AL100" s="39"/>
-      <c r="AM100" s="39"/>
-      <c r="AN100" s="39"/>
-      <c r="AO100" s="39"/>
-      <c r="AP100" s="39"/>
-      <c r="AQ100" s="39"/>
-      <c r="AR100" s="39"/>
-      <c r="AS100" s="39"/>
-      <c r="AT100" s="39"/>
-      <c r="AU100" s="39"/>
-      <c r="AV100" s="39"/>
-      <c r="AW100" s="39"/>
-      <c r="AX100" s="39"/>
-      <c r="AY100" s="39"/>
-      <c r="AZ100" s="39"/>
-      <c r="BA100" s="39"/>
-      <c r="BB100" s="39"/>
-      <c r="BC100" s="39"/>
-      <c r="BD100" s="39"/>
-      <c r="BE100" s="39"/>
-      <c r="BF100" s="39"/>
-      <c r="BG100" s="39"/>
-      <c r="BH100" s="39"/>
-      <c r="BI100" s="39"/>
-      <c r="BJ100" s="39"/>
-      <c r="BK100" s="39"/>
-      <c r="BL100" s="39"/>
-      <c r="BM100" s="39"/>
-      <c r="BN100" s="39"/>
-      <c r="BO100" s="39"/>
-      <c r="BP100" s="39"/>
-      <c r="BQ100" s="39"/>
-      <c r="BR100" s="39"/>
-      <c r="BS100" s="39"/>
-      <c r="BT100" s="39"/>
-      <c r="BU100" s="39"/>
-      <c r="BV100" s="39"/>
-      <c r="BW100" s="39"/>
-      <c r="BX100" s="39"/>
-      <c r="BY100" s="39"/>
-      <c r="BZ100" s="39"/>
-      <c r="CA100" s="39"/>
-      <c r="CB100" s="39"/>
-      <c r="CC100" s="39"/>
-      <c r="CD100" s="39"/>
-      <c r="CE100" s="39"/>
-      <c r="CF100" s="39"/>
-      <c r="CG100" s="39"/>
-      <c r="CH100" s="39"/>
-      <c r="CI100" s="39"/>
-      <c r="CJ100" s="39"/>
-      <c r="CK100" s="39"/>
-      <c r="CL100" s="39"/>
-      <c r="CM100" s="39"/>
-      <c r="CN100" s="39"/>
-      <c r="CO100" s="39"/>
-      <c r="CP100" s="39"/>
-      <c r="CQ100" s="39"/>
-      <c r="CR100" s="39"/>
-      <c r="CS100" s="39"/>
-      <c r="CT100" s="39"/>
-      <c r="CU100" s="39"/>
-      <c r="CV100" s="39"/>
-      <c r="CW100" s="39"/>
-      <c r="CX100" s="39"/>
-      <c r="CY100" s="39"/>
-      <c r="CZ100" s="39"/>
-      <c r="DA100" s="39"/>
-      <c r="DB100" s="39" t="s">
-        <v>28</v>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="24"/>
+      <c r="W100" s="24"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+      <c r="AH100" s="24"/>
+      <c r="AI100" s="24"/>
+      <c r="AJ100" s="24"/>
+      <c r="AK100" s="24"/>
+      <c r="AL100" s="24"/>
+      <c r="AM100" s="24"/>
+      <c r="AN100" s="24"/>
+      <c r="AO100" s="24"/>
+      <c r="AP100" s="24"/>
+      <c r="AQ100" s="24"/>
+      <c r="AR100" s="24"/>
+      <c r="AS100" s="24"/>
+      <c r="AT100" s="24"/>
+      <c r="AU100" s="24"/>
+      <c r="AV100" s="24"/>
+      <c r="AW100" s="24"/>
+      <c r="AX100" s="24"/>
+      <c r="AY100" s="24"/>
+      <c r="AZ100" s="24"/>
+      <c r="BA100" s="24"/>
+      <c r="BB100" s="24"/>
+      <c r="BC100" s="24"/>
+      <c r="BD100" s="24"/>
+      <c r="BE100" s="24"/>
+      <c r="BF100" s="24"/>
+      <c r="BG100" s="24"/>
+      <c r="BH100" s="24"/>
+      <c r="BI100" s="24"/>
+      <c r="BJ100" s="24"/>
+      <c r="BK100" s="24"/>
+      <c r="BL100" s="24"/>
+      <c r="BM100" s="24"/>
+      <c r="BN100" s="24"/>
+      <c r="BO100" s="24"/>
+      <c r="BP100" s="24"/>
+      <c r="BQ100" s="24"/>
+      <c r="BR100" s="24"/>
+      <c r="BS100" s="24"/>
+      <c r="BT100" s="24"/>
+      <c r="BU100" s="24"/>
+      <c r="BV100" s="24"/>
+      <c r="BW100" s="24"/>
+      <c r="BX100" s="24"/>
+      <c r="BY100" s="24"/>
+      <c r="BZ100" s="24"/>
+      <c r="CA100" s="24"/>
+      <c r="CB100" s="24"/>
+      <c r="CC100" s="24"/>
+      <c r="CD100" s="24"/>
+      <c r="CE100" s="24"/>
+      <c r="CF100" s="24"/>
+      <c r="CG100" s="24"/>
+      <c r="CH100" s="24"/>
+      <c r="CI100" s="24"/>
+      <c r="CJ100" s="24"/>
+      <c r="CK100" s="24"/>
+      <c r="CL100" s="24"/>
+      <c r="CM100" s="24"/>
+      <c r="CN100" s="24"/>
+      <c r="CO100" s="24"/>
+      <c r="CP100" s="24"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
+      <c r="CT100" s="24"/>
+      <c r="CU100" s="24"/>
+      <c r="CV100" s="24"/>
+      <c r="CW100" s="24"/>
+      <c r="CX100" s="24"/>
+      <c r="CY100" s="24"/>
+      <c r="CZ100" s="24"/>
+      <c r="DA100" s="24"/>
+      <c r="DB100" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="DE100" s="39"/>
-      <c r="DG100" s="39"/>
-      <c r="DH100" s="39"/>
-      <c r="DI100" s="39"/>
-      <c r="DJ100" s="39"/>
-      <c r="DK100" s="39"/>
-      <c r="DL100" s="39"/>
-      <c r="DM100" s="39"/>
-      <c r="DN100" s="40"/>
+      <c r="DE100" s="24"/>
+      <c r="DG100" s="24"/>
+      <c r="DH100" s="24"/>
+      <c r="DI100" s="24"/>
+      <c r="DJ100" s="24"/>
+      <c r="DK100" s="24"/>
+      <c r="DL100" s="24"/>
+      <c r="DM100" s="24"/>
+      <c r="DN100" s="25"/>
     </row>
-    <row r="101" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="39"/>
-      <c r="U101" s="39"/>
-      <c r="V101" s="39"/>
-      <c r="W101" s="39"/>
-      <c r="X101" s="39"/>
-      <c r="Y101" s="39"/>
-      <c r="Z101" s="39"/>
-      <c r="AA101" s="39"/>
-      <c r="AB101" s="39"/>
-      <c r="AC101" s="39"/>
-      <c r="AD101" s="39"/>
-      <c r="AE101" s="39"/>
-      <c r="AF101" s="39"/>
-      <c r="AG101" s="39"/>
-      <c r="AH101" s="39"/>
-      <c r="AI101" s="39"/>
-      <c r="AJ101" s="39"/>
-      <c r="AK101" s="39"/>
-      <c r="AL101" s="39"/>
-      <c r="AM101" s="39"/>
-      <c r="AN101" s="39"/>
-      <c r="AO101" s="39"/>
-      <c r="AP101" s="39"/>
-      <c r="AQ101" s="39"/>
-      <c r="AR101" s="39"/>
-      <c r="AS101" s="39"/>
-      <c r="AT101" s="39"/>
-      <c r="AU101" s="39"/>
-      <c r="AV101" s="39"/>
-      <c r="AW101" s="39"/>
-      <c r="AX101" s="39"/>
-      <c r="AY101" s="39"/>
-      <c r="AZ101" s="39"/>
-      <c r="BA101" s="39"/>
-      <c r="BB101" s="39"/>
-      <c r="BC101" s="39"/>
-      <c r="BD101" s="39"/>
-      <c r="BE101" s="39"/>
-      <c r="BF101" s="39"/>
-      <c r="BG101" s="39"/>
-      <c r="BH101" s="39"/>
-      <c r="BI101" s="39"/>
-      <c r="BJ101" s="39"/>
-      <c r="BK101" s="39"/>
-      <c r="BL101" s="39"/>
-      <c r="BM101" s="39"/>
-      <c r="BN101" s="39"/>
-      <c r="BO101" s="39"/>
-      <c r="BP101" s="39"/>
-      <c r="BQ101" s="39"/>
-      <c r="BR101" s="39"/>
-      <c r="BS101" s="39"/>
-      <c r="BT101" s="39"/>
-      <c r="BU101" s="39"/>
-      <c r="BV101" s="39"/>
-      <c r="BW101" s="39"/>
-      <c r="BX101" s="39"/>
-      <c r="BY101" s="39"/>
-      <c r="BZ101" s="39"/>
-      <c r="CA101" s="39"/>
-      <c r="CB101" s="39"/>
-      <c r="CC101" s="39"/>
-      <c r="CD101" s="39"/>
-      <c r="CE101" s="39"/>
-      <c r="CF101" s="39"/>
-      <c r="CG101" s="39"/>
-      <c r="CH101" s="39"/>
-      <c r="CI101" s="39"/>
-      <c r="CJ101" s="39"/>
-      <c r="CK101" s="39"/>
-      <c r="CL101" s="39"/>
-      <c r="CM101" s="39"/>
-      <c r="CN101" s="39"/>
-      <c r="CO101" s="39"/>
-      <c r="CP101" s="39"/>
-      <c r="CQ101" s="39"/>
-      <c r="CR101" s="39"/>
-      <c r="CS101" s="39"/>
-      <c r="CT101" s="39"/>
-      <c r="CU101" s="39"/>
-      <c r="CV101" s="39"/>
-      <c r="CW101" s="39"/>
-      <c r="CX101" s="39"/>
-      <c r="CY101" s="39"/>
-      <c r="CZ101" s="39"/>
-      <c r="DA101" s="39"/>
-      <c r="DB101" s="39" t="s">
-        <v>29</v>
+    <row r="101" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="24"/>
+      <c r="U101" s="24"/>
+      <c r="V101" s="24"/>
+      <c r="W101" s="24"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="24"/>
+      <c r="Z101" s="24"/>
+      <c r="AA101" s="24"/>
+      <c r="AB101" s="24"/>
+      <c r="AC101" s="24"/>
+      <c r="AD101" s="24"/>
+      <c r="AE101" s="24"/>
+      <c r="AF101" s="24"/>
+      <c r="AG101" s="24"/>
+      <c r="AH101" s="24"/>
+      <c r="AI101" s="24"/>
+      <c r="AJ101" s="24"/>
+      <c r="AK101" s="24"/>
+      <c r="AL101" s="24"/>
+      <c r="AM101" s="24"/>
+      <c r="AN101" s="24"/>
+      <c r="AO101" s="24"/>
+      <c r="AP101" s="24"/>
+      <c r="AQ101" s="24"/>
+      <c r="AR101" s="24"/>
+      <c r="AS101" s="24"/>
+      <c r="AT101" s="24"/>
+      <c r="AU101" s="24"/>
+      <c r="AV101" s="24"/>
+      <c r="AW101" s="24"/>
+      <c r="AX101" s="24"/>
+      <c r="AY101" s="24"/>
+      <c r="AZ101" s="24"/>
+      <c r="BA101" s="24"/>
+      <c r="BB101" s="24"/>
+      <c r="BC101" s="24"/>
+      <c r="BD101" s="24"/>
+      <c r="BE101" s="24"/>
+      <c r="BF101" s="24"/>
+      <c r="BG101" s="24"/>
+      <c r="BH101" s="24"/>
+      <c r="BI101" s="24"/>
+      <c r="BJ101" s="24"/>
+      <c r="BK101" s="24"/>
+      <c r="BL101" s="24"/>
+      <c r="BM101" s="24"/>
+      <c r="BN101" s="24"/>
+      <c r="BO101" s="24"/>
+      <c r="BP101" s="24"/>
+      <c r="BQ101" s="24"/>
+      <c r="BR101" s="24"/>
+      <c r="BS101" s="24"/>
+      <c r="BT101" s="24"/>
+      <c r="BU101" s="24"/>
+      <c r="BV101" s="24"/>
+      <c r="BW101" s="24"/>
+      <c r="BX101" s="24"/>
+      <c r="BY101" s="24"/>
+      <c r="BZ101" s="24"/>
+      <c r="CA101" s="24"/>
+      <c r="CB101" s="24"/>
+      <c r="CC101" s="24"/>
+      <c r="CD101" s="24"/>
+      <c r="CE101" s="24"/>
+      <c r="CF101" s="24"/>
+      <c r="CG101" s="24"/>
+      <c r="CH101" s="24"/>
+      <c r="CI101" s="24"/>
+      <c r="CJ101" s="24"/>
+      <c r="CK101" s="24"/>
+      <c r="CL101" s="24"/>
+      <c r="CM101" s="24"/>
+      <c r="CN101" s="24"/>
+      <c r="CO101" s="24"/>
+      <c r="CP101" s="24"/>
+      <c r="CQ101" s="24"/>
+      <c r="CR101" s="24"/>
+      <c r="CS101" s="24"/>
+      <c r="CT101" s="24"/>
+      <c r="CU101" s="24"/>
+      <c r="CV101" s="24"/>
+      <c r="CW101" s="24"/>
+      <c r="CX101" s="24"/>
+      <c r="CY101" s="24"/>
+      <c r="CZ101" s="24"/>
+      <c r="DA101" s="24"/>
+      <c r="DB101" s="24" t="s">
+        <v>11</v>
       </c>
-      <c r="DE101" s="39"/>
-      <c r="DG101" s="39"/>
-      <c r="DH101" s="39"/>
-      <c r="DI101" s="39"/>
-      <c r="DJ101" s="39"/>
-      <c r="DK101" s="39"/>
-      <c r="DL101" s="39"/>
-      <c r="DM101" s="39"/>
-      <c r="DN101" s="40"/>
+      <c r="DE101" s="24"/>
+      <c r="DG101" s="24"/>
+      <c r="DH101" s="24"/>
+      <c r="DI101" s="24"/>
+      <c r="DJ101" s="24"/>
+      <c r="DK101" s="24"/>
+      <c r="DL101" s="24"/>
+      <c r="DM101" s="24"/>
+      <c r="DN101" s="25"/>
     </row>
-    <row r="102" spans="2:118" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="41"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
-      <c r="M102" s="42"/>
-      <c r="N102" s="42"/>
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
-      <c r="Q102" s="42"/>
-      <c r="R102" s="42"/>
-      <c r="S102" s="42"/>
-      <c r="T102" s="42"/>
-      <c r="U102" s="42"/>
-      <c r="V102" s="42"/>
-      <c r="W102" s="42"/>
-      <c r="X102" s="42"/>
-      <c r="Y102" s="42"/>
-      <c r="Z102" s="42"/>
-      <c r="AA102" s="42"/>
-      <c r="AB102" s="42"/>
-      <c r="AC102" s="42"/>
-      <c r="AD102" s="42"/>
-      <c r="AE102" s="42"/>
-      <c r="AF102" s="42"/>
-      <c r="AG102" s="42"/>
-      <c r="AH102" s="42"/>
-      <c r="AI102" s="42"/>
-      <c r="AJ102" s="42"/>
-      <c r="AK102" s="42"/>
-      <c r="AL102" s="42"/>
-      <c r="AM102" s="42"/>
-      <c r="AN102" s="42"/>
-      <c r="AO102" s="42"/>
-      <c r="AP102" s="42"/>
-      <c r="AQ102" s="42"/>
-      <c r="AR102" s="42"/>
-      <c r="AS102" s="42"/>
-      <c r="AT102" s="42"/>
-      <c r="AU102" s="42"/>
-      <c r="AV102" s="42"/>
-      <c r="AW102" s="42"/>
-      <c r="AX102" s="42"/>
-      <c r="AY102" s="42"/>
-      <c r="AZ102" s="42"/>
-      <c r="BA102" s="42"/>
-      <c r="BB102" s="42"/>
-      <c r="BC102" s="42"/>
-      <c r="BD102" s="42"/>
-      <c r="BE102" s="42"/>
-      <c r="BF102" s="42"/>
-      <c r="BG102" s="42"/>
-      <c r="BH102" s="42"/>
-      <c r="BI102" s="42"/>
-      <c r="BJ102" s="42"/>
-      <c r="BK102" s="42"/>
-      <c r="BL102" s="42"/>
-      <c r="BM102" s="42"/>
-      <c r="BN102" s="42"/>
-      <c r="BO102" s="42"/>
-      <c r="BP102" s="42"/>
-      <c r="BQ102" s="42"/>
-      <c r="BR102" s="42"/>
-      <c r="BS102" s="42"/>
-      <c r="BT102" s="42"/>
-      <c r="BU102" s="42"/>
-      <c r="BV102" s="42"/>
-      <c r="BW102" s="42"/>
-      <c r="BX102" s="42"/>
-      <c r="BY102" s="42"/>
-      <c r="BZ102" s="42"/>
-      <c r="CA102" s="42"/>
-      <c r="CB102" s="42"/>
-      <c r="CC102" s="42"/>
-      <c r="CD102" s="42"/>
-      <c r="CE102" s="42"/>
-      <c r="CF102" s="42"/>
-      <c r="CG102" s="42"/>
-      <c r="CH102" s="42"/>
-      <c r="CI102" s="42"/>
-      <c r="CJ102" s="42"/>
-      <c r="CK102" s="42"/>
-      <c r="CL102" s="42"/>
-      <c r="CM102" s="42"/>
-      <c r="CN102" s="42"/>
-      <c r="CO102" s="42"/>
-      <c r="CP102" s="42"/>
-      <c r="CQ102" s="42"/>
-      <c r="CR102" s="42"/>
-      <c r="CS102" s="42"/>
-      <c r="CT102" s="42"/>
-      <c r="CU102" s="42"/>
-      <c r="CV102" s="42"/>
-      <c r="CW102" s="42"/>
-      <c r="CX102" s="42"/>
-      <c r="CY102" s="42"/>
-      <c r="CZ102" s="42"/>
-      <c r="DA102" s="42"/>
-      <c r="DB102" s="42"/>
-      <c r="DC102" s="42"/>
-      <c r="DD102" s="42"/>
-      <c r="DE102" s="42"/>
-      <c r="DF102" s="42"/>
-      <c r="DG102" s="42"/>
-      <c r="DH102" s="42"/>
-      <c r="DI102" s="42"/>
-      <c r="DJ102" s="42"/>
-      <c r="DK102" s="42"/>
-      <c r="DL102" s="42"/>
-      <c r="DM102" s="42"/>
-      <c r="DN102" s="43"/>
+    <row r="102" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="27"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="27"/>
+      <c r="T102" s="27"/>
+      <c r="U102" s="27"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="27"/>
+      <c r="AF102" s="27"/>
+      <c r="AG102" s="27"/>
+      <c r="AH102" s="27"/>
+      <c r="AI102" s="27"/>
+      <c r="AJ102" s="27"/>
+      <c r="AK102" s="27"/>
+      <c r="AL102" s="27"/>
+      <c r="AM102" s="27"/>
+      <c r="AN102" s="27"/>
+      <c r="AO102" s="27"/>
+      <c r="AP102" s="27"/>
+      <c r="AQ102" s="27"/>
+      <c r="AR102" s="27"/>
+      <c r="AS102" s="27"/>
+      <c r="AT102" s="27"/>
+      <c r="AU102" s="27"/>
+      <c r="AV102" s="27"/>
+      <c r="AW102" s="27"/>
+      <c r="AX102" s="27"/>
+      <c r="AY102" s="27"/>
+      <c r="AZ102" s="27"/>
+      <c r="BA102" s="27"/>
+      <c r="BB102" s="27"/>
+      <c r="BC102" s="27"/>
+      <c r="BD102" s="27"/>
+      <c r="BE102" s="27"/>
+      <c r="BF102" s="27"/>
+      <c r="BG102" s="27"/>
+      <c r="BH102" s="27"/>
+      <c r="BI102" s="27"/>
+      <c r="BJ102" s="27"/>
+      <c r="BK102" s="27"/>
+      <c r="BL102" s="27"/>
+      <c r="BM102" s="27"/>
+      <c r="BN102" s="27"/>
+      <c r="BO102" s="27"/>
+      <c r="BP102" s="27"/>
+      <c r="BQ102" s="27"/>
+      <c r="BR102" s="27"/>
+      <c r="BS102" s="27"/>
+      <c r="BT102" s="27"/>
+      <c r="BU102" s="27"/>
+      <c r="BV102" s="27"/>
+      <c r="BW102" s="27"/>
+      <c r="BX102" s="27"/>
+      <c r="BY102" s="27"/>
+      <c r="BZ102" s="27"/>
+      <c r="CA102" s="27"/>
+      <c r="CB102" s="27"/>
+      <c r="CC102" s="27"/>
+      <c r="CD102" s="27"/>
+      <c r="CE102" s="27"/>
+      <c r="CF102" s="27"/>
+      <c r="CG102" s="27"/>
+      <c r="CH102" s="27"/>
+      <c r="CI102" s="27"/>
+      <c r="CJ102" s="27"/>
+      <c r="CK102" s="27"/>
+      <c r="CL102" s="27"/>
+      <c r="CM102" s="27"/>
+      <c r="CN102" s="27"/>
+      <c r="CO102" s="27"/>
+      <c r="CP102" s="27"/>
+      <c r="CQ102" s="27"/>
+      <c r="CR102" s="27"/>
+      <c r="CS102" s="27"/>
+      <c r="CT102" s="27"/>
+      <c r="CU102" s="27"/>
+      <c r="CV102" s="27"/>
+      <c r="CW102" s="27"/>
+      <c r="CX102" s="27"/>
+      <c r="CY102" s="27"/>
+      <c r="CZ102" s="27"/>
+      <c r="DA102" s="27"/>
+      <c r="DB102" s="27"/>
+      <c r="DC102" s="27"/>
+      <c r="DD102" s="27"/>
+      <c r="DE102" s="27"/>
+      <c r="DF102" s="27"/>
+      <c r="DG102" s="27"/>
+      <c r="DH102" s="27"/>
+      <c r="DI102" s="27"/>
+      <c r="DJ102" s="27"/>
+      <c r="DK102" s="27"/>
+      <c r="DL102" s="27"/>
+      <c r="DM102" s="27"/>
+      <c r="DN102" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2CC80-173D-40CA-B9EF-A734E638CA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68175AF-DE9C-4B63-81FC-F0FC5089BB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2505" windowWidth="17760" windowHeight="10260" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -766,6 +766,90 @@
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -879,90 +963,6 @@
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -13504,7 +13504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="4495800"/>
+          <a:off x="18270630" y="4686300"/>
           <a:ext cx="3398746" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -13589,14 +13589,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13611,8 +13611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20669251" y="4495800"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="19269076" y="5857875"/>
+          <a:ext cx="1400175" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -13868,14 +13868,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25853</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13890,8 +13890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19767096" y="6298746"/>
-          <a:ext cx="1224643" cy="526595"/>
+          <a:off x="19373850" y="6534150"/>
+          <a:ext cx="1200150" cy="355145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13949,14 +13949,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>324</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>199702</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13971,8 +13971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19069374" y="6724650"/>
-          <a:ext cx="1399528" cy="514349"/>
+          <a:off x="19269399" y="7229475"/>
+          <a:ext cx="1399528" cy="409574"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -14228,14 +14228,14 @@
     <xdr:from>
       <xdr:col>93</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>108</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14250,8 +14250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="5695950"/>
-          <a:ext cx="3000375" cy="857250"/>
+          <a:off x="18468975" y="6457950"/>
+          <a:ext cx="3000375" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -15129,14 +15129,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15154,8 +15154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19769138" y="5524500"/>
-          <a:ext cx="1" cy="171450"/>
+          <a:off x="19969163" y="6238876"/>
+          <a:ext cx="1" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15189,14 +15189,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15214,8 +15214,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19769138" y="6553200"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="19969163" y="6991349"/>
+          <a:ext cx="0" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -40970,6 +40970,415 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直線矢印コネクタ 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D56072-0783-4D69-8933-F65AF0AF16AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="356" idx="2"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19969163" y="5600699"/>
+          <a:ext cx="1" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="フローチャート: 処理 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C1891-3A4A-4969-8679-9CD2E4F73C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18468975" y="5067300"/>
+          <a:ext cx="3000375" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>95982</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>91901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="メモ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E5A33D-7813-4C59-BD26-47667AFC1963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19365057" y="5153025"/>
+          <a:ext cx="1196069" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> test specification document</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41353,12 +41762,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="110">
+      <c r="I25" s="45">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43677</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
@@ -41958,55 +42367,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="62" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="80" t="str">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="45">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="30"/>
       <c r="AK1" s="30"/>
       <c r="AL1" s="30"/>
@@ -42014,51 +42423,51 @@
       <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="87" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="45" t="str">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="73" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="30"/>
       <c r="AK2" s="30"/>
       <c r="AL2" s="30"/>
@@ -42066,43 +42475,43 @@
       <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -42139,1190 +42548,1034 @@
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="50" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="50" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="50" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="80"/>
     </row>
     <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="103" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="105"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
     <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="91"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
     <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="91"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="91"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="91"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="91"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="91"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="91"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="91"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="91"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="91"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="91"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="91"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="91"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="91"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="91"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="91"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="91"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="91"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43346,6 +43599,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43359,9 +43768,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68175AF-DE9C-4B63-81FC-F0FC5089BB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E32DA-5927-4853-B28C-3E1D6165A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,87 +769,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -962,6 +881,87 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -41379,6 +41379,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>195912</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD5B877-E2A3-47A0-B98D-5A7589C2CBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6419849" y="12839701"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>176862</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>159287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EFEB37-C137-4A3E-93E2-0523D3FD9690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9401174" y="13535026"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42367,55 +42489,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="90" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="81" t="s">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="30"/>
       <c r="AK1" s="30"/>
       <c r="AL1" s="30"/>
@@ -42423,51 +42545,51 @@
       <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="81" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="87" t="str">
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="60" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="46" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="30"/>
       <c r="AK2" s="30"/>
       <c r="AL2" s="30"/>
@@ -42475,43 +42597,43 @@
       <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -42548,1034 +42670,1190 @@
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="78" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="78" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="78" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="78" t="s">
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="80"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
     </row>
     <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="97"/>
+      <c r="D8" s="98">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="106"/>
     </row>
     <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="92"/>
     </row>
     <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="92"/>
     </row>
     <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="92"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="92"/>
     </row>
     <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="92"/>
     </row>
     <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="92"/>
     </row>
     <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="92"/>
     </row>
     <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="92"/>
     </row>
     <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="92"/>
     </row>
     <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="92"/>
     </row>
     <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="92"/>
     </row>
     <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="92"/>
     </row>
     <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="92"/>
     </row>
     <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="92"/>
     </row>
     <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="92"/>
     </row>
     <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="92"/>
     </row>
     <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="92"/>
     </row>
     <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+      <c r="AA26" s="94"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="94"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="92"/>
     </row>
     <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="92"/>
     </row>
     <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="92"/>
     </row>
     <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="92"/>
     </row>
     <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="92"/>
     </row>
     <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="92"/>
     </row>
     <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="92"/>
     </row>
     <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="92"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43599,162 +43877,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E32DA-5927-4853-B28C-3E1D6165A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D916C-4DCD-41CE-9912-E0C1A68DADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Flow of Nablarch Development'!$A$1:$DO$102</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -193,6 +193,37 @@
       </rPr>
       <t>Version 1.0</t>
     </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version
+1.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Modification</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Class Unit Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add the Unit test specification document to input of the Class unit test
+preparation.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Object Browser
+Data output tool for code table registration</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add a gear icon as per legend.</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -654,7 +685,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -768,6 +799,87 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -884,85 +996,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -41886,7 +41920,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="45">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43677</v>
+        <v>44791</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -42489,55 +42523,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="54" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="30"/>
       <c r="AK1" s="30"/>
       <c r="AL1" s="30"/>
@@ -42545,51 +42579,51 @@
       <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="54" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="60" t="str">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="87" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="46" t="str">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="73">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44791</v>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="30"/>
       <c r="AK2" s="30"/>
       <c r="AL2" s="30"/>
@@ -42597,43 +42631,43 @@
       <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -42670,1190 +42704,1054 @@
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="51" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="51" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="80"/>
     </row>
     <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="104" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="106"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
-    <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="92"/>
+    <row r="9" spans="1:40" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
+        <v>2</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48">
+        <v>44791</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
-    <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="39" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="92"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="92"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="92"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="92"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="92"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="92"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="92"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="92"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="92"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="92"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="92"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="92"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="92"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43877,6 +43775,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2CC80-173D-40CA-B9EF-A734E638CA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D916C-4DCD-41CE-9912-E0C1A68DADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2505" windowWidth="17760" windowHeight="10260" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Flow of Nablarch Development'!$A$1:$DO$102</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -193,6 +193,37 @@
       </rPr>
       <t>Version 1.0</t>
     </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version
+1.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Modification</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Class Unit Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add the Unit test specification document to input of the Class unit test
+preparation.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Object Browser
+Data output tool for code table registration</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add a gear icon as per legend.</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -654,7 +685,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +796,90 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -881,88 +996,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -13504,7 +13538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="4495800"/>
+          <a:off x="18270630" y="4686300"/>
           <a:ext cx="3398746" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -13589,14 +13623,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13611,8 +13645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20669251" y="4495800"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="19269076" y="5857875"/>
+          <a:ext cx="1400175" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -13868,14 +13902,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25853</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13890,8 +13924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19767096" y="6298746"/>
-          <a:ext cx="1224643" cy="526595"/>
+          <a:off x="19373850" y="6534150"/>
+          <a:ext cx="1200150" cy="355145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13949,14 +13983,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>324</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>199702</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13971,8 +14005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19069374" y="6724650"/>
-          <a:ext cx="1399528" cy="514349"/>
+          <a:off x="19269399" y="7229475"/>
+          <a:ext cx="1399528" cy="409574"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -14228,14 +14262,14 @@
     <xdr:from>
       <xdr:col>93</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>108</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14250,8 +14284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="5695950"/>
-          <a:ext cx="3000375" cy="857250"/>
+          <a:off x="18468975" y="6457950"/>
+          <a:ext cx="3000375" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -15129,14 +15163,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15154,8 +15188,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19769138" y="5524500"/>
-          <a:ext cx="1" cy="171450"/>
+          <a:off x="19969163" y="6238876"/>
+          <a:ext cx="1" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15189,14 +15223,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15214,8 +15248,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19769138" y="6553200"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="19969163" y="6991349"/>
+          <a:ext cx="0" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -40970,6 +41004,537 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直線矢印コネクタ 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D56072-0783-4D69-8933-F65AF0AF16AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="356" idx="2"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19969163" y="5600699"/>
+          <a:ext cx="1" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="フローチャート: 処理 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C1891-3A4A-4969-8679-9CD2E4F73C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18468975" y="5067300"/>
+          <a:ext cx="3000375" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>95982</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>91901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="メモ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E5A33D-7813-4C59-BD26-47667AFC1963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19365057" y="5153025"/>
+          <a:ext cx="1196069" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> test specification document</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>195912</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD5B877-E2A3-47A0-B98D-5A7589C2CBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6419849" y="12839701"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>176862</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>159287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EFEB37-C137-4A3E-93E2-0523D3FD9690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9401174" y="13535026"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41353,12 +41918,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="110">
+      <c r="I25" s="45">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43677</v>
+        <v>44791</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
@@ -41958,55 +42523,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="62" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="80" t="str">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="45">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="30"/>
       <c r="AK1" s="30"/>
       <c r="AL1" s="30"/>
@@ -42014,51 +42579,51 @@
       <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="87" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="45" t="str">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="73">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44791</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="30"/>
       <c r="AK2" s="30"/>
       <c r="AL2" s="30"/>
@@ -42066,43 +42631,43 @@
       <c r="AN2" s="30"/>
     </row>
     <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
@@ -42139,1190 +42704,1054 @@
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="50" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="50" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="50" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="80"/>
     </row>
     <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="103" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="105"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
-    <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="91"/>
+    <row r="9" spans="1:40" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
+        <v>2</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48">
+        <v>44791</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
-    <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="39" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="91"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="91"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="91"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="91"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="91"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="91"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="91"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="91"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="91"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="91"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="91"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="91"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="91"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="91"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="91"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="91"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="91"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43346,6 +43775,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43359,9 +43944,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D916C-4DCD-41CE-9912-E0C1A68DADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4260B6A3-8B59-4162-822B-518FC0B93306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -685,12 +685,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,20 +702,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -742,9 +741,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -760,24 +756,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,8 +793,122 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -835,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -881,122 +985,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -41864,7 +41857,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -41905,7 +41898,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -41918,12 +41911,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="45">
+      <c r="I25" s="42">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44791</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
@@ -41965,7 +41958,7 @@
       <c r="H33" s="5"/>
       <c r="J33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -41979,44 +41972,44 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="13"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42517,1241 +42510,1397 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="4.83203125" style="42"/>
-    <col min="28" max="28" width="5.6640625" style="42" customWidth="1"/>
-    <col min="29" max="16384" width="4.83203125" style="42"/>
+    <col min="1" max="27" width="4.83203125" style="39"/>
+    <col min="28" max="28" width="5.6640625" style="39" customWidth="1"/>
+    <col min="29" max="16384" width="4.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="90" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="81" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="78" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="43">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
     </row>
-    <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="81" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="87" t="str">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="57" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="73">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="43">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44791</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
-    <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
     </row>
-    <row r="5" spans="1:40" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="34" t="s">
+    <row r="5" spans="1:40" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
     </row>
-    <row r="6" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="34"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
+    <row r="6" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="31"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
     </row>
-    <row r="7" spans="1:40" s="39" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:40" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="78" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="78" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="78" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="78" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="80"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
     </row>
-    <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40">
+    <row r="8" spans="1:40" s="36" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
     </row>
-    <row r="9" spans="1:40" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+    <row r="9" spans="1:40" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48">
+      <c r="C9" s="82"/>
+      <c r="D9" s="83">
         <v>44791</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52" t="s">
+      <c r="H9" s="86"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55" t="s">
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52" t="s">
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="89"/>
     </row>
-    <row r="10" spans="1:40" s="39" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="55" t="s">
+    <row r="10" spans="1:40" s="36" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55" t="s">
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52" t="s">
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="89"/>
     </row>
-    <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+    <row r="11" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="89"/>
     </row>
-    <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+    <row r="12" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="89"/>
     </row>
-    <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+    <row r="13" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="89"/>
     </row>
-    <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+    <row r="14" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="89"/>
     </row>
-    <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+    <row r="15" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="89"/>
     </row>
-    <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+    <row r="16" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="89"/>
     </row>
-    <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+    <row r="17" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="89"/>
     </row>
-    <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+    <row r="18" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="89"/>
     </row>
-    <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+    <row r="19" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="89"/>
     </row>
-    <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+    <row r="20" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="89"/>
     </row>
-    <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+    <row r="21" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="89"/>
     </row>
-    <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+    <row r="22" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="89"/>
     </row>
-    <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+    <row r="23" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="89"/>
     </row>
-    <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+    <row r="24" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="38"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="89"/>
     </row>
-    <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+    <row r="25" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="89"/>
     </row>
-    <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+    <row r="26" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="38"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="89"/>
     </row>
-    <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+    <row r="27" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="89"/>
     </row>
-    <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+    <row r="28" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="89"/>
     </row>
-    <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+    <row r="29" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="89"/>
     </row>
-    <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+    <row r="30" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="89"/>
     </row>
-    <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+    <row r="31" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="88"/>
+      <c r="AH31" s="88"/>
+      <c r="AI31" s="89"/>
     </row>
-    <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+    <row r="32" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="89"/>
     </row>
-    <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+    <row r="33" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="87"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="89"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K34" s="43"/>
+      <c r="K34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -43775,162 +43924,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -43944,838 +43937,400 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="3.5" style="29"/>
+    <col min="1" max="1" width="1.1640625" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="3.5" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:50" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="18"/>
-      <c r="AX1" s="18"/>
+      <c r="AS1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
-    <row r="2" spans="2:50" s="17" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="19" t="s">
+    <row r="2" spans="2:50" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="20"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="20"/>
-      <c r="W97" s="20"/>
-      <c r="X97" s="20"/>
-      <c r="Y97" s="20"/>
-      <c r="Z97" s="20"/>
-      <c r="AA97" s="20"/>
-      <c r="AB97" s="20"/>
-      <c r="AC97" s="20"/>
-      <c r="AD97" s="20"/>
-      <c r="AE97" s="20"/>
-      <c r="AF97" s="20"/>
-      <c r="AG97" s="20"/>
-      <c r="AH97" s="20"/>
-      <c r="AI97" s="20"/>
-      <c r="AJ97" s="20"/>
-      <c r="AK97" s="20"/>
-      <c r="AL97" s="20"/>
-      <c r="AM97" s="20"/>
-      <c r="AN97" s="20"/>
-      <c r="AO97" s="20"/>
-      <c r="AP97" s="20"/>
-      <c r="AQ97" s="20"/>
-      <c r="AR97" s="20"/>
-      <c r="AS97" s="20"/>
-      <c r="AT97" s="20"/>
-      <c r="AU97" s="20"/>
-      <c r="AV97" s="20"/>
-      <c r="AW97" s="20"/>
-      <c r="AX97" s="20"/>
-      <c r="AY97" s="20"/>
-      <c r="AZ97" s="20"/>
-      <c r="BA97" s="20"/>
-      <c r="BB97" s="20"/>
-      <c r="BC97" s="20"/>
-      <c r="BD97" s="20"/>
-      <c r="BE97" s="20"/>
-      <c r="BF97" s="20"/>
-      <c r="BG97" s="20"/>
-      <c r="BH97" s="20"/>
-      <c r="BI97" s="20"/>
-      <c r="BJ97" s="20"/>
-      <c r="BK97" s="20"/>
-      <c r="BL97" s="20"/>
-      <c r="BM97" s="20"/>
-      <c r="BN97" s="20"/>
-      <c r="BO97" s="20"/>
-      <c r="BP97" s="20"/>
-      <c r="BQ97" s="20"/>
-      <c r="BR97" s="20"/>
-      <c r="BS97" s="20"/>
-      <c r="BT97" s="20"/>
-      <c r="BU97" s="20"/>
-      <c r="BV97" s="20"/>
-      <c r="BW97" s="20"/>
-      <c r="BX97" s="20"/>
-      <c r="BY97" s="20"/>
-      <c r="BZ97" s="20"/>
-      <c r="CA97" s="20"/>
-      <c r="CB97" s="20"/>
-      <c r="CC97" s="20"/>
-      <c r="CD97" s="20"/>
-      <c r="CE97" s="20"/>
-      <c r="CF97" s="20"/>
-      <c r="CG97" s="20"/>
-      <c r="CH97" s="20"/>
-      <c r="CI97" s="20"/>
-      <c r="CJ97" s="20"/>
-      <c r="CK97" s="20"/>
-      <c r="CL97" s="20"/>
-      <c r="CM97" s="20"/>
-      <c r="CN97" s="20"/>
-      <c r="CO97" s="20"/>
-      <c r="CP97" s="20"/>
-      <c r="CQ97" s="20"/>
-      <c r="CR97" s="20"/>
-      <c r="CS97" s="20"/>
-      <c r="CT97" s="20"/>
-      <c r="CU97" s="20"/>
-      <c r="CV97" s="20"/>
-      <c r="CW97" s="20"/>
-      <c r="CX97" s="20"/>
-      <c r="CY97" s="20"/>
-      <c r="CZ97" s="20"/>
-      <c r="DA97" s="20"/>
-      <c r="DB97" s="20"/>
-      <c r="DC97" s="20"/>
-      <c r="DD97" s="20"/>
-      <c r="DE97" s="20"/>
-      <c r="DF97" s="20"/>
-      <c r="DG97" s="20"/>
-      <c r="DH97" s="20"/>
-      <c r="DI97" s="20"/>
-      <c r="DJ97" s="20"/>
-      <c r="DK97" s="20"/>
-      <c r="DL97" s="20"/>
-      <c r="DM97" s="20"/>
-      <c r="DN97" s="21"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="19"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="19"/>
+      <c r="AF97" s="19"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="19"/>
+      <c r="AJ97" s="19"/>
+      <c r="AK97" s="19"/>
+      <c r="AL97" s="19"/>
+      <c r="AM97" s="19"/>
+      <c r="AN97" s="19"/>
+      <c r="AO97" s="19"/>
+      <c r="AP97" s="19"/>
+      <c r="AQ97" s="19"/>
+      <c r="AR97" s="19"/>
+      <c r="AS97" s="19"/>
+      <c r="AT97" s="19"/>
+      <c r="AU97" s="19"/>
+      <c r="AV97" s="19"/>
+      <c r="AW97" s="19"/>
+      <c r="AX97" s="19"/>
+      <c r="AY97" s="19"/>
+      <c r="AZ97" s="19"/>
+      <c r="BA97" s="19"/>
+      <c r="BB97" s="19"/>
+      <c r="BC97" s="19"/>
+      <c r="BD97" s="19"/>
+      <c r="BE97" s="19"/>
+      <c r="BF97" s="19"/>
+      <c r="BG97" s="19"/>
+      <c r="BH97" s="19"/>
+      <c r="BI97" s="19"/>
+      <c r="BJ97" s="19"/>
+      <c r="BK97" s="19"/>
+      <c r="BL97" s="19"/>
+      <c r="BM97" s="19"/>
+      <c r="BN97" s="19"/>
+      <c r="BO97" s="19"/>
+      <c r="BP97" s="19"/>
+      <c r="BQ97" s="19"/>
+      <c r="BR97" s="19"/>
+      <c r="BS97" s="19"/>
+      <c r="BT97" s="19"/>
+      <c r="BU97" s="19"/>
+      <c r="BV97" s="19"/>
+      <c r="BW97" s="19"/>
+      <c r="BX97" s="19"/>
+      <c r="BY97" s="19"/>
+      <c r="BZ97" s="19"/>
+      <c r="CA97" s="19"/>
+      <c r="CB97" s="19"/>
+      <c r="CC97" s="19"/>
+      <c r="CD97" s="19"/>
+      <c r="CE97" s="19"/>
+      <c r="CF97" s="19"/>
+      <c r="CG97" s="19"/>
+      <c r="CH97" s="19"/>
+      <c r="CI97" s="19"/>
+      <c r="CJ97" s="19"/>
+      <c r="CK97" s="19"/>
+      <c r="CL97" s="19"/>
+      <c r="CM97" s="19"/>
+      <c r="CN97" s="19"/>
+      <c r="CO97" s="19"/>
+      <c r="CP97" s="19"/>
+      <c r="CQ97" s="19"/>
+      <c r="CR97" s="19"/>
+      <c r="CS97" s="19"/>
+      <c r="CT97" s="19"/>
+      <c r="CU97" s="19"/>
+      <c r="CV97" s="19"/>
+      <c r="CW97" s="19"/>
+      <c r="CX97" s="19"/>
+      <c r="CY97" s="19"/>
+      <c r="CZ97" s="19"/>
+      <c r="DA97" s="19"/>
+      <c r="DB97" s="19"/>
+      <c r="DC97" s="19"/>
+      <c r="DD97" s="19"/>
+      <c r="DE97" s="19"/>
+      <c r="DF97" s="19"/>
+      <c r="DG97" s="19"/>
+      <c r="DH97" s="19"/>
+      <c r="DI97" s="19"/>
+      <c r="DJ97" s="19"/>
+      <c r="DK97" s="19"/>
+      <c r="DL97" s="19"/>
+      <c r="DM97" s="19"/>
+      <c r="DN97" s="20"/>
     </row>
-    <row r="98" spans="2:118" s="22" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="24"/>
-      <c r="AI98" s="24"/>
-      <c r="AJ98" s="24"/>
-      <c r="AK98" s="24"/>
-      <c r="AL98" s="24"/>
-      <c r="AM98" s="24"/>
-      <c r="AN98" s="24"/>
-      <c r="AO98" s="24"/>
-      <c r="AP98" s="24"/>
-      <c r="AQ98" s="24"/>
-      <c r="AR98" s="24"/>
-      <c r="AS98" s="24"/>
-      <c r="AT98" s="24"/>
-      <c r="AU98" s="24"/>
-      <c r="AV98" s="24"/>
-      <c r="AW98" s="24"/>
-      <c r="AX98" s="24"/>
-      <c r="AY98" s="24"/>
-      <c r="AZ98" s="24"/>
-      <c r="BA98" s="24"/>
-      <c r="BB98" s="24"/>
-      <c r="BC98" s="24"/>
-      <c r="BD98" s="24"/>
-      <c r="BE98" s="24"/>
-      <c r="BF98" s="24"/>
-      <c r="BG98" s="24"/>
-      <c r="BH98" s="24"/>
-      <c r="BI98" s="24"/>
-      <c r="BJ98" s="24"/>
-      <c r="BK98" s="24"/>
-      <c r="BL98" s="24"/>
-      <c r="BM98" s="24"/>
-      <c r="BN98" s="24"/>
-      <c r="BO98" s="24"/>
-      <c r="BP98" s="24"/>
-      <c r="BQ98" s="24"/>
-      <c r="BR98" s="24"/>
-      <c r="BS98" s="24"/>
-      <c r="BT98" s="24"/>
-      <c r="BU98" s="24"/>
-      <c r="BV98" s="24"/>
-      <c r="BW98" s="24"/>
-      <c r="BX98" s="24"/>
-      <c r="BY98" s="24"/>
-      <c r="BZ98" s="24"/>
-      <c r="CA98" s="24"/>
-      <c r="CB98" s="24"/>
-      <c r="CC98" s="24"/>
-      <c r="CD98" s="24"/>
-      <c r="CE98" s="24"/>
-      <c r="CF98" s="24"/>
-      <c r="CG98" s="24"/>
-      <c r="CH98" s="24"/>
-      <c r="CI98" s="24"/>
-      <c r="CJ98" s="24"/>
-      <c r="CK98" s="24"/>
-      <c r="CL98" s="24"/>
-      <c r="CM98" s="24"/>
-      <c r="CN98" s="24"/>
-      <c r="CO98" s="24"/>
-      <c r="CP98" s="24"/>
-      <c r="CQ98" s="24"/>
-      <c r="CR98" s="24"/>
-      <c r="CS98" s="24"/>
-      <c r="CT98" s="24"/>
-      <c r="CU98" s="24"/>
-      <c r="CV98" s="24"/>
-      <c r="CW98" s="24"/>
-      <c r="CX98" s="24"/>
-      <c r="CY98" s="24"/>
-      <c r="CZ98" s="24"/>
-      <c r="DA98" s="24"/>
-      <c r="DB98" s="24"/>
-      <c r="DC98" s="24"/>
-      <c r="DD98" s="24"/>
-      <c r="DE98" s="24"/>
-      <c r="DF98" s="24"/>
-      <c r="DG98" s="24"/>
-      <c r="DH98" s="24"/>
-      <c r="DI98" s="24"/>
-      <c r="DJ98" s="24"/>
-      <c r="DK98" s="24"/>
-      <c r="DL98" s="24"/>
-      <c r="DM98" s="24"/>
-      <c r="DN98" s="25"/>
+    <row r="98" spans="2:118" s="21" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="22"/>
+      <c r="DN98" s="23"/>
     </row>
-    <row r="99" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="23"/>
-      <c r="C99" s="24" t="s">
+    <row r="99" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="22"/>
+      <c r="C99" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="24"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-      <c r="W99" s="24"/>
-      <c r="X99" s="24" t="s">
+      <c r="X99" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y99" s="24"/>
-      <c r="Z99" s="24"/>
-      <c r="AA99" s="24"/>
-      <c r="AB99" s="24"/>
-      <c r="AC99" s="24"/>
-      <c r="AD99" s="24"/>
-      <c r="AE99" s="24"/>
-      <c r="AF99" s="24"/>
-      <c r="AG99" s="24"/>
-      <c r="AH99" s="24"/>
-      <c r="AI99" s="24"/>
-      <c r="AJ99" s="24"/>
-      <c r="AK99" s="24"/>
-      <c r="AL99" s="24"/>
-      <c r="AM99" s="24"/>
-      <c r="AN99" s="24"/>
-      <c r="AO99" s="24"/>
-      <c r="AP99" s="24"/>
-      <c r="AQ99" s="24"/>
-      <c r="AR99" s="24"/>
-      <c r="AS99" s="24"/>
-      <c r="AT99" s="24"/>
-      <c r="AU99" s="24"/>
-      <c r="AV99" s="24"/>
-      <c r="AW99" s="24"/>
-      <c r="AX99" s="24"/>
-      <c r="AY99" s="24" t="s">
+      <c r="AY99" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AZ99" s="24"/>
-      <c r="BA99" s="24"/>
-      <c r="BB99" s="24"/>
-      <c r="BC99" s="24"/>
-      <c r="BD99" s="24"/>
-      <c r="BE99" s="24"/>
-      <c r="BF99" s="24"/>
-      <c r="BG99" s="24"/>
-      <c r="BH99" s="24"/>
-      <c r="BI99" s="24"/>
-      <c r="BJ99" s="24"/>
-      <c r="BK99" s="24"/>
-      <c r="BL99" s="24"/>
-      <c r="BM99" s="24"/>
-      <c r="BN99" s="24"/>
-      <c r="BO99" s="24"/>
-      <c r="BP99" s="24"/>
-      <c r="BQ99" s="24"/>
-      <c r="BT99" s="24" t="s">
+      <c r="BT99" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BU99" s="24"/>
-      <c r="BV99" s="24"/>
-      <c r="BW99" s="24"/>
-      <c r="BX99" s="24"/>
-      <c r="BY99" s="24"/>
-      <c r="BZ99" s="24"/>
-      <c r="CA99" s="24"/>
-      <c r="CB99" s="24"/>
-      <c r="CC99" s="24"/>
-      <c r="CD99" s="24"/>
-      <c r="CE99" s="24"/>
-      <c r="CF99" s="24"/>
-      <c r="CG99" s="24"/>
-      <c r="CH99" s="24"/>
-      <c r="CI99" s="24"/>
-      <c r="CJ99" s="24"/>
-      <c r="CK99" s="24"/>
-      <c r="CL99" s="24"/>
-      <c r="CM99" s="24"/>
-      <c r="CN99" s="24"/>
-      <c r="CO99" s="24"/>
-      <c r="CP99" s="24"/>
-      <c r="CQ99" s="24"/>
-      <c r="CR99" s="24"/>
-      <c r="CS99" s="24"/>
-      <c r="CT99" s="24"/>
-      <c r="CU99" s="24"/>
-      <c r="CV99" s="24"/>
-      <c r="CW99" s="24"/>
-      <c r="CX99" s="24"/>
-      <c r="CY99" s="24"/>
-      <c r="CZ99" s="24"/>
-      <c r="DA99" s="24" t="s">
+      <c r="DA99" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="DD99" s="24"/>
-      <c r="DE99" s="24"/>
-      <c r="DG99" s="24"/>
-      <c r="DH99" s="24"/>
-      <c r="DI99" s="24"/>
-      <c r="DJ99" s="24"/>
-      <c r="DK99" s="24"/>
-      <c r="DL99" s="24"/>
-      <c r="DM99" s="24"/>
-      <c r="DN99" s="25"/>
+      <c r="DN99" s="23"/>
     </row>
-    <row r="100" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="23"/>
-      <c r="C100" s="24" t="s">
+    <row r="100" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="22"/>
+      <c r="C100" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24"/>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="24"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="24"/>
-      <c r="AH100" s="24"/>
-      <c r="AI100" s="24"/>
-      <c r="AJ100" s="24"/>
-      <c r="AK100" s="24"/>
-      <c r="AL100" s="24"/>
-      <c r="AM100" s="24"/>
-      <c r="AN100" s="24"/>
-      <c r="AO100" s="24"/>
-      <c r="AP100" s="24"/>
-      <c r="AQ100" s="24"/>
-      <c r="AR100" s="24"/>
-      <c r="AS100" s="24"/>
-      <c r="AT100" s="24"/>
-      <c r="AU100" s="24"/>
-      <c r="AV100" s="24"/>
-      <c r="AW100" s="24"/>
-      <c r="AX100" s="24"/>
-      <c r="AY100" s="24"/>
-      <c r="AZ100" s="24"/>
-      <c r="BA100" s="24"/>
-      <c r="BB100" s="24"/>
-      <c r="BC100" s="24"/>
-      <c r="BD100" s="24"/>
-      <c r="BE100" s="24"/>
-      <c r="BF100" s="24"/>
-      <c r="BG100" s="24"/>
-      <c r="BH100" s="24"/>
-      <c r="BI100" s="24"/>
-      <c r="BJ100" s="24"/>
-      <c r="BK100" s="24"/>
-      <c r="BL100" s="24"/>
-      <c r="BM100" s="24"/>
-      <c r="BN100" s="24"/>
-      <c r="BO100" s="24"/>
-      <c r="BP100" s="24"/>
-      <c r="BQ100" s="24"/>
-      <c r="BR100" s="24"/>
-      <c r="BS100" s="24"/>
-      <c r="BT100" s="24"/>
-      <c r="BU100" s="24"/>
-      <c r="BV100" s="24"/>
-      <c r="BW100" s="24"/>
-      <c r="BX100" s="24"/>
-      <c r="BY100" s="24"/>
-      <c r="BZ100" s="24"/>
-      <c r="CA100" s="24"/>
-      <c r="CB100" s="24"/>
-      <c r="CC100" s="24"/>
-      <c r="CD100" s="24"/>
-      <c r="CE100" s="24"/>
-      <c r="CF100" s="24"/>
-      <c r="CG100" s="24"/>
-      <c r="CH100" s="24"/>
-      <c r="CI100" s="24"/>
-      <c r="CJ100" s="24"/>
-      <c r="CK100" s="24"/>
-      <c r="CL100" s="24"/>
-      <c r="CM100" s="24"/>
-      <c r="CN100" s="24"/>
-      <c r="CO100" s="24"/>
-      <c r="CP100" s="24"/>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="24"/>
-      <c r="CU100" s="24"/>
-      <c r="CV100" s="24"/>
-      <c r="CW100" s="24"/>
-      <c r="CX100" s="24"/>
-      <c r="CY100" s="24"/>
-      <c r="CZ100" s="24"/>
-      <c r="DA100" s="24"/>
-      <c r="DB100" s="24" t="s">
+      <c r="DB100" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="DE100" s="24"/>
-      <c r="DG100" s="24"/>
-      <c r="DH100" s="24"/>
-      <c r="DI100" s="24"/>
-      <c r="DJ100" s="24"/>
-      <c r="DK100" s="24"/>
-      <c r="DL100" s="24"/>
-      <c r="DM100" s="24"/>
-      <c r="DN100" s="25"/>
+      <c r="DN100" s="23"/>
     </row>
-    <row r="101" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="24"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="24"/>
-      <c r="AC101" s="24"/>
-      <c r="AD101" s="24"/>
-      <c r="AE101" s="24"/>
-      <c r="AF101" s="24"/>
-      <c r="AG101" s="24"/>
-      <c r="AH101" s="24"/>
-      <c r="AI101" s="24"/>
-      <c r="AJ101" s="24"/>
-      <c r="AK101" s="24"/>
-      <c r="AL101" s="24"/>
-      <c r="AM101" s="24"/>
-      <c r="AN101" s="24"/>
-      <c r="AO101" s="24"/>
-      <c r="AP101" s="24"/>
-      <c r="AQ101" s="24"/>
-      <c r="AR101" s="24"/>
-      <c r="AS101" s="24"/>
-      <c r="AT101" s="24"/>
-      <c r="AU101" s="24"/>
-      <c r="AV101" s="24"/>
-      <c r="AW101" s="24"/>
-      <c r="AX101" s="24"/>
-      <c r="AY101" s="24"/>
-      <c r="AZ101" s="24"/>
-      <c r="BA101" s="24"/>
-      <c r="BB101" s="24"/>
-      <c r="BC101" s="24"/>
-      <c r="BD101" s="24"/>
-      <c r="BE101" s="24"/>
-      <c r="BF101" s="24"/>
-      <c r="BG101" s="24"/>
-      <c r="BH101" s="24"/>
-      <c r="BI101" s="24"/>
-      <c r="BJ101" s="24"/>
-      <c r="BK101" s="24"/>
-      <c r="BL101" s="24"/>
-      <c r="BM101" s="24"/>
-      <c r="BN101" s="24"/>
-      <c r="BO101" s="24"/>
-      <c r="BP101" s="24"/>
-      <c r="BQ101" s="24"/>
-      <c r="BR101" s="24"/>
-      <c r="BS101" s="24"/>
-      <c r="BT101" s="24"/>
-      <c r="BU101" s="24"/>
-      <c r="BV101" s="24"/>
-      <c r="BW101" s="24"/>
-      <c r="BX101" s="24"/>
-      <c r="BY101" s="24"/>
-      <c r="BZ101" s="24"/>
-      <c r="CA101" s="24"/>
-      <c r="CB101" s="24"/>
-      <c r="CC101" s="24"/>
-      <c r="CD101" s="24"/>
-      <c r="CE101" s="24"/>
-      <c r="CF101" s="24"/>
-      <c r="CG101" s="24"/>
-      <c r="CH101" s="24"/>
-      <c r="CI101" s="24"/>
-      <c r="CJ101" s="24"/>
-      <c r="CK101" s="24"/>
-      <c r="CL101" s="24"/>
-      <c r="CM101" s="24"/>
-      <c r="CN101" s="24"/>
-      <c r="CO101" s="24"/>
-      <c r="CP101" s="24"/>
-      <c r="CQ101" s="24"/>
-      <c r="CR101" s="24"/>
-      <c r="CS101" s="24"/>
-      <c r="CT101" s="24"/>
-      <c r="CU101" s="24"/>
-      <c r="CV101" s="24"/>
-      <c r="CW101" s="24"/>
-      <c r="CX101" s="24"/>
-      <c r="CY101" s="24"/>
-      <c r="CZ101" s="24"/>
-      <c r="DA101" s="24"/>
-      <c r="DB101" s="24" t="s">
+    <row r="101" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="22"/>
+      <c r="DB101" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="DE101" s="24"/>
-      <c r="DG101" s="24"/>
-      <c r="DH101" s="24"/>
-      <c r="DI101" s="24"/>
-      <c r="DJ101" s="24"/>
-      <c r="DK101" s="24"/>
-      <c r="DL101" s="24"/>
-      <c r="DM101" s="24"/>
-      <c r="DN101" s="25"/>
+      <c r="DN101" s="23"/>
     </row>
-    <row r="102" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="27"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="27"/>
-      <c r="AE102" s="27"/>
-      <c r="AF102" s="27"/>
-      <c r="AG102" s="27"/>
-      <c r="AH102" s="27"/>
-      <c r="AI102" s="27"/>
-      <c r="AJ102" s="27"/>
-      <c r="AK102" s="27"/>
-      <c r="AL102" s="27"/>
-      <c r="AM102" s="27"/>
-      <c r="AN102" s="27"/>
-      <c r="AO102" s="27"/>
-      <c r="AP102" s="27"/>
-      <c r="AQ102" s="27"/>
-      <c r="AR102" s="27"/>
-      <c r="AS102" s="27"/>
-      <c r="AT102" s="27"/>
-      <c r="AU102" s="27"/>
-      <c r="AV102" s="27"/>
-      <c r="AW102" s="27"/>
-      <c r="AX102" s="27"/>
-      <c r="AY102" s="27"/>
-      <c r="AZ102" s="27"/>
-      <c r="BA102" s="27"/>
-      <c r="BB102" s="27"/>
-      <c r="BC102" s="27"/>
-      <c r="BD102" s="27"/>
-      <c r="BE102" s="27"/>
-      <c r="BF102" s="27"/>
-      <c r="BG102" s="27"/>
-      <c r="BH102" s="27"/>
-      <c r="BI102" s="27"/>
-      <c r="BJ102" s="27"/>
-      <c r="BK102" s="27"/>
-      <c r="BL102" s="27"/>
-      <c r="BM102" s="27"/>
-      <c r="BN102" s="27"/>
-      <c r="BO102" s="27"/>
-      <c r="BP102" s="27"/>
-      <c r="BQ102" s="27"/>
-      <c r="BR102" s="27"/>
-      <c r="BS102" s="27"/>
-      <c r="BT102" s="27"/>
-      <c r="BU102" s="27"/>
-      <c r="BV102" s="27"/>
-      <c r="BW102" s="27"/>
-      <c r="BX102" s="27"/>
-      <c r="BY102" s="27"/>
-      <c r="BZ102" s="27"/>
-      <c r="CA102" s="27"/>
-      <c r="CB102" s="27"/>
-      <c r="CC102" s="27"/>
-      <c r="CD102" s="27"/>
-      <c r="CE102" s="27"/>
-      <c r="CF102" s="27"/>
-      <c r="CG102" s="27"/>
-      <c r="CH102" s="27"/>
-      <c r="CI102" s="27"/>
-      <c r="CJ102" s="27"/>
-      <c r="CK102" s="27"/>
-      <c r="CL102" s="27"/>
-      <c r="CM102" s="27"/>
-      <c r="CN102" s="27"/>
-      <c r="CO102" s="27"/>
-      <c r="CP102" s="27"/>
-      <c r="CQ102" s="27"/>
-      <c r="CR102" s="27"/>
-      <c r="CS102" s="27"/>
-      <c r="CT102" s="27"/>
-      <c r="CU102" s="27"/>
-      <c r="CV102" s="27"/>
-      <c r="CW102" s="27"/>
-      <c r="CX102" s="27"/>
-      <c r="CY102" s="27"/>
-      <c r="CZ102" s="27"/>
-      <c r="DA102" s="27"/>
-      <c r="DB102" s="27"/>
-      <c r="DC102" s="27"/>
-      <c r="DD102" s="27"/>
-      <c r="DE102" s="27"/>
-      <c r="DF102" s="27"/>
-      <c r="DG102" s="27"/>
-      <c r="DH102" s="27"/>
-      <c r="DI102" s="27"/>
-      <c r="DJ102" s="27"/>
-      <c r="DK102" s="27"/>
-      <c r="DL102" s="27"/>
-      <c r="DM102" s="27"/>
-      <c r="DN102" s="28"/>
+    <row r="102" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="25"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="25"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="25"/>
+      <c r="AH102" s="25"/>
+      <c r="AI102" s="25"/>
+      <c r="AJ102" s="25"/>
+      <c r="AK102" s="25"/>
+      <c r="AL102" s="25"/>
+      <c r="AM102" s="25"/>
+      <c r="AN102" s="25"/>
+      <c r="AO102" s="25"/>
+      <c r="AP102" s="25"/>
+      <c r="AQ102" s="25"/>
+      <c r="AR102" s="25"/>
+      <c r="AS102" s="25"/>
+      <c r="AT102" s="25"/>
+      <c r="AU102" s="25"/>
+      <c r="AV102" s="25"/>
+      <c r="AW102" s="25"/>
+      <c r="AX102" s="25"/>
+      <c r="AY102" s="25"/>
+      <c r="AZ102" s="25"/>
+      <c r="BA102" s="25"/>
+      <c r="BB102" s="25"/>
+      <c r="BC102" s="25"/>
+      <c r="BD102" s="25"/>
+      <c r="BE102" s="25"/>
+      <c r="BF102" s="25"/>
+      <c r="BG102" s="25"/>
+      <c r="BH102" s="25"/>
+      <c r="BI102" s="25"/>
+      <c r="BJ102" s="25"/>
+      <c r="BK102" s="25"/>
+      <c r="BL102" s="25"/>
+      <c r="BM102" s="25"/>
+      <c r="BN102" s="25"/>
+      <c r="BO102" s="25"/>
+      <c r="BP102" s="25"/>
+      <c r="BQ102" s="25"/>
+      <c r="BR102" s="25"/>
+      <c r="BS102" s="25"/>
+      <c r="BT102" s="25"/>
+      <c r="BU102" s="25"/>
+      <c r="BV102" s="25"/>
+      <c r="BW102" s="25"/>
+      <c r="BX102" s="25"/>
+      <c r="BY102" s="25"/>
+      <c r="BZ102" s="25"/>
+      <c r="CA102" s="25"/>
+      <c r="CB102" s="25"/>
+      <c r="CC102" s="25"/>
+      <c r="CD102" s="25"/>
+      <c r="CE102" s="25"/>
+      <c r="CF102" s="25"/>
+      <c r="CG102" s="25"/>
+      <c r="CH102" s="25"/>
+      <c r="CI102" s="25"/>
+      <c r="CJ102" s="25"/>
+      <c r="CK102" s="25"/>
+      <c r="CL102" s="25"/>
+      <c r="CM102" s="25"/>
+      <c r="CN102" s="25"/>
+      <c r="CO102" s="25"/>
+      <c r="CP102" s="25"/>
+      <c r="CQ102" s="25"/>
+      <c r="CR102" s="25"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="25"/>
+      <c r="CU102" s="25"/>
+      <c r="CV102" s="25"/>
+      <c r="CW102" s="25"/>
+      <c r="CX102" s="25"/>
+      <c r="CY102" s="25"/>
+      <c r="CZ102" s="25"/>
+      <c r="DA102" s="25"/>
+      <c r="DB102" s="25"/>
+      <c r="DC102" s="25"/>
+      <c r="DD102" s="25"/>
+      <c r="DE102" s="25"/>
+      <c r="DF102" s="25"/>
+      <c r="DG102" s="25"/>
+      <c r="DH102" s="25"/>
+      <c r="DI102" s="25"/>
+      <c r="DJ102" s="25"/>
+      <c r="DK102" s="25"/>
+      <c r="DL102" s="25"/>
+      <c r="DM102" s="25"/>
+      <c r="DN102" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="57" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
+++ b/en/Sample_Project/Design_Document/Flow_of_development_using_Nablarch.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2CC80-173D-40CA-B9EF-A734E638CA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4260B6A3-8B59-4162-822B-518FC0B93306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2505" windowWidth="17760" windowHeight="10260" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Flow of Nablarch Development'!$A$1:$DO$102</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -193,6 +193,37 @@
       </rPr>
       <t>Version 1.0</t>
     </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Version
+1.1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Modification</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Class Unit Test</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add the Unit test specification document to input of the Class unit test
+preparation.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Object Browser
+Data output tool for code table registration</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Add a gear icon as per legend.</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -654,12 +685,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,20 +702,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -711,9 +741,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -729,24 +756,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,6 +789,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -808,13 +835,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +856,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,44 +871,44 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -958,11 +985,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -13504,7 +13531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="4495800"/>
+          <a:off x="18270630" y="4686300"/>
           <a:ext cx="3398746" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -13589,14 +13616,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13611,8 +13638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20669251" y="4495800"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="19269076" y="5857875"/>
+          <a:ext cx="1400175" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -13868,14 +13895,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25853</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13890,8 +13917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19767096" y="6298746"/>
-          <a:ext cx="1224643" cy="526595"/>
+          <a:off x="19373850" y="6534150"/>
+          <a:ext cx="1200150" cy="355145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13949,14 +13976,14 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>324</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>199702</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13971,8 +13998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19069374" y="6724650"/>
-          <a:ext cx="1399528" cy="514349"/>
+          <a:off x="19269399" y="7229475"/>
+          <a:ext cx="1399528" cy="409574"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -14228,14 +14255,14 @@
     <xdr:from>
       <xdr:col>93</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>108</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14250,8 +14277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="5695950"/>
-          <a:ext cx="3000375" cy="857250"/>
+          <a:off x="18468975" y="6457950"/>
+          <a:ext cx="3000375" cy="533399"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -15129,14 +15156,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15154,8 +15181,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19769138" y="5524500"/>
-          <a:ext cx="1" cy="171450"/>
+          <a:off x="19969163" y="6238876"/>
+          <a:ext cx="1" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15189,14 +15216,14 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15214,8 +15241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19769138" y="6553200"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="19969163" y="6991349"/>
+          <a:ext cx="0" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -40970,6 +40997,537 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直線矢印コネクタ 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D56072-0783-4D69-8933-F65AF0AF16AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="356" idx="2"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19969163" y="5600699"/>
+          <a:ext cx="1" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="フローチャート: 処理 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C1891-3A4A-4969-8679-9CD2E4F73C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18468975" y="5067300"/>
+          <a:ext cx="3000375" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>95982</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>91901</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="メモ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E5A33D-7813-4C59-BD26-47667AFC1963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19365057" y="5153025"/>
+          <a:ext cx="1196069" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> test specification document</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="メイリオ"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>195912</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD5B877-E2A3-47A0-B98D-5A7589C2CBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6419849" y="12839701"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>176862</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>159287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EFEB37-C137-4A3E-93E2-0523D3FD9690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9401174" y="13535026"/>
+          <a:ext cx="243538" cy="225961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41299,7 +41857,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -41340,7 +41898,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -41353,12 +41911,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="110">
+      <c r="I25" s="42">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43677</v>
+        <v>44791</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
@@ -41400,7 +41958,7 @@
       <c r="H33" s="5"/>
       <c r="J33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -41414,44 +41972,44 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="13"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41952,1218 +42510,1238 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="4.83203125" style="42"/>
-    <col min="28" max="28" width="5.6640625" style="42" customWidth="1"/>
-    <col min="29" max="16384" width="4.83203125" style="42"/>
+    <col min="1" max="27" width="4.83203125" style="39"/>
+    <col min="28" max="28" width="5.6640625" style="39" customWidth="1"/>
+    <col min="29" max="16384" width="4.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="62" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="80" t="str">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="78" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="45">
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="43">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
     </row>
-    <row r="2" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="57" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="45" t="str">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="43">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44791</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
     </row>
-    <row r="3" spans="1:40" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:40" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
     </row>
-    <row r="5" spans="1:40" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="34" t="s">
+    <row r="5" spans="1:40" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
     </row>
-    <row r="6" spans="1:40" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="34"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
+    <row r="6" spans="1:40" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="31"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
     </row>
-    <row r="7" spans="1:40" s="39" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:40" s="36" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="50" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="50" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="50" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
     </row>
-    <row r="8" spans="1:40" s="39" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40">
+    <row r="8" spans="1:40" s="36" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95">
         <v>43677</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="103" t="s">
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="105"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="103"/>
     </row>
-    <row r="9" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="91"/>
+    <row r="9" spans="1:40" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
+        <v>2</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83">
+        <v>44791</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="89"/>
     </row>
-    <row r="10" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="91"/>
+    <row r="10" spans="1:40" s="36" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="89"/>
     </row>
-    <row r="11" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
+    <row r="11" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="89"/>
     </row>
-    <row r="12" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
+    <row r="12" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="89"/>
     </row>
-    <row r="13" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
+    <row r="13" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="89"/>
     </row>
-    <row r="14" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
+    <row r="14" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="89"/>
     </row>
-    <row r="15" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
+    <row r="15" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="89"/>
     </row>
-    <row r="16" spans="1:40" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
+    <row r="16" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="89"/>
     </row>
-    <row r="17" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
+    <row r="17" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="89"/>
     </row>
-    <row r="18" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="91"/>
+    <row r="18" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="89"/>
     </row>
-    <row r="19" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="91"/>
+    <row r="19" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="89"/>
     </row>
-    <row r="20" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="91"/>
+    <row r="20" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="89"/>
     </row>
-    <row r="21" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="91"/>
+    <row r="21" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="89"/>
     </row>
-    <row r="22" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="91"/>
+    <row r="22" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="89"/>
     </row>
-    <row r="23" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="91"/>
+    <row r="23" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="89"/>
     </row>
-    <row r="24" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="91"/>
+    <row r="24" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="38"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="89"/>
     </row>
-    <row r="25" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="91"/>
+    <row r="25" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="89"/>
     </row>
-    <row r="26" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="91"/>
+    <row r="26" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="38"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="89"/>
     </row>
-    <row r="27" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="91"/>
+    <row r="27" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="89"/>
     </row>
-    <row r="28" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="91"/>
+    <row r="28" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="89"/>
     </row>
-    <row r="29" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="91"/>
+    <row r="29" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="89"/>
     </row>
-    <row r="30" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="91"/>
+    <row r="30" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="89"/>
     </row>
-    <row r="31" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="91"/>
+    <row r="31" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="88"/>
+      <c r="AH31" s="88"/>
+      <c r="AI31" s="89"/>
     </row>
-    <row r="32" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="91"/>
+    <row r="32" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="91"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="89"/>
     </row>
-    <row r="33" spans="1:35" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="91"/>
+    <row r="33" spans="1:35" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="87"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="89"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K34" s="43"/>
+      <c r="K34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -43359,840 +43937,400 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="3.5" style="29"/>
+    <col min="1" max="1" width="1.1640625" style="27" customWidth="1"/>
+    <col min="2" max="16384" width="3.5" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:50" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="18"/>
-      <c r="AX1" s="18"/>
+      <c r="AS1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
-    <row r="2" spans="2:50" s="17" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:50" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="19" t="s">
+    <row r="2" spans="2:50" s="16" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:50" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="20"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="20"/>
-      <c r="W97" s="20"/>
-      <c r="X97" s="20"/>
-      <c r="Y97" s="20"/>
-      <c r="Z97" s="20"/>
-      <c r="AA97" s="20"/>
-      <c r="AB97" s="20"/>
-      <c r="AC97" s="20"/>
-      <c r="AD97" s="20"/>
-      <c r="AE97" s="20"/>
-      <c r="AF97" s="20"/>
-      <c r="AG97" s="20"/>
-      <c r="AH97" s="20"/>
-      <c r="AI97" s="20"/>
-      <c r="AJ97" s="20"/>
-      <c r="AK97" s="20"/>
-      <c r="AL97" s="20"/>
-      <c r="AM97" s="20"/>
-      <c r="AN97" s="20"/>
-      <c r="AO97" s="20"/>
-      <c r="AP97" s="20"/>
-      <c r="AQ97" s="20"/>
-      <c r="AR97" s="20"/>
-      <c r="AS97" s="20"/>
-      <c r="AT97" s="20"/>
-      <c r="AU97" s="20"/>
-      <c r="AV97" s="20"/>
-      <c r="AW97" s="20"/>
-      <c r="AX97" s="20"/>
-      <c r="AY97" s="20"/>
-      <c r="AZ97" s="20"/>
-      <c r="BA97" s="20"/>
-      <c r="BB97" s="20"/>
-      <c r="BC97" s="20"/>
-      <c r="BD97" s="20"/>
-      <c r="BE97" s="20"/>
-      <c r="BF97" s="20"/>
-      <c r="BG97" s="20"/>
-      <c r="BH97" s="20"/>
-      <c r="BI97" s="20"/>
-      <c r="BJ97" s="20"/>
-      <c r="BK97" s="20"/>
-      <c r="BL97" s="20"/>
-      <c r="BM97" s="20"/>
-      <c r="BN97" s="20"/>
-      <c r="BO97" s="20"/>
-      <c r="BP97" s="20"/>
-      <c r="BQ97" s="20"/>
-      <c r="BR97" s="20"/>
-      <c r="BS97" s="20"/>
-      <c r="BT97" s="20"/>
-      <c r="BU97" s="20"/>
-      <c r="BV97" s="20"/>
-      <c r="BW97" s="20"/>
-      <c r="BX97" s="20"/>
-      <c r="BY97" s="20"/>
-      <c r="BZ97" s="20"/>
-      <c r="CA97" s="20"/>
-      <c r="CB97" s="20"/>
-      <c r="CC97" s="20"/>
-      <c r="CD97" s="20"/>
-      <c r="CE97" s="20"/>
-      <c r="CF97" s="20"/>
-      <c r="CG97" s="20"/>
-      <c r="CH97" s="20"/>
-      <c r="CI97" s="20"/>
-      <c r="CJ97" s="20"/>
-      <c r="CK97" s="20"/>
-      <c r="CL97" s="20"/>
-      <c r="CM97" s="20"/>
-      <c r="CN97" s="20"/>
-      <c r="CO97" s="20"/>
-      <c r="CP97" s="20"/>
-      <c r="CQ97" s="20"/>
-      <c r="CR97" s="20"/>
-      <c r="CS97" s="20"/>
-      <c r="CT97" s="20"/>
-      <c r="CU97" s="20"/>
-      <c r="CV97" s="20"/>
-      <c r="CW97" s="20"/>
-      <c r="CX97" s="20"/>
-      <c r="CY97" s="20"/>
-      <c r="CZ97" s="20"/>
-      <c r="DA97" s="20"/>
-      <c r="DB97" s="20"/>
-      <c r="DC97" s="20"/>
-      <c r="DD97" s="20"/>
-      <c r="DE97" s="20"/>
-      <c r="DF97" s="20"/>
-      <c r="DG97" s="20"/>
-      <c r="DH97" s="20"/>
-      <c r="DI97" s="20"/>
-      <c r="DJ97" s="20"/>
-      <c r="DK97" s="20"/>
-      <c r="DL97" s="20"/>
-      <c r="DM97" s="20"/>
-      <c r="DN97" s="21"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="19"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="19"/>
+      <c r="AF97" s="19"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="19"/>
+      <c r="AJ97" s="19"/>
+      <c r="AK97" s="19"/>
+      <c r="AL97" s="19"/>
+      <c r="AM97" s="19"/>
+      <c r="AN97" s="19"/>
+      <c r="AO97" s="19"/>
+      <c r="AP97" s="19"/>
+      <c r="AQ97" s="19"/>
+      <c r="AR97" s="19"/>
+      <c r="AS97" s="19"/>
+      <c r="AT97" s="19"/>
+      <c r="AU97" s="19"/>
+      <c r="AV97" s="19"/>
+      <c r="AW97" s="19"/>
+      <c r="AX97" s="19"/>
+      <c r="AY97" s="19"/>
+      <c r="AZ97" s="19"/>
+      <c r="BA97" s="19"/>
+      <c r="BB97" s="19"/>
+      <c r="BC97" s="19"/>
+      <c r="BD97" s="19"/>
+      <c r="BE97" s="19"/>
+      <c r="BF97" s="19"/>
+      <c r="BG97" s="19"/>
+      <c r="BH97" s="19"/>
+      <c r="BI97" s="19"/>
+      <c r="BJ97" s="19"/>
+      <c r="BK97" s="19"/>
+      <c r="BL97" s="19"/>
+      <c r="BM97" s="19"/>
+      <c r="BN97" s="19"/>
+      <c r="BO97" s="19"/>
+      <c r="BP97" s="19"/>
+      <c r="BQ97" s="19"/>
+      <c r="BR97" s="19"/>
+      <c r="BS97" s="19"/>
+      <c r="BT97" s="19"/>
+      <c r="BU97" s="19"/>
+      <c r="BV97" s="19"/>
+      <c r="BW97" s="19"/>
+      <c r="BX97" s="19"/>
+      <c r="BY97" s="19"/>
+      <c r="BZ97" s="19"/>
+      <c r="CA97" s="19"/>
+      <c r="CB97" s="19"/>
+      <c r="CC97" s="19"/>
+      <c r="CD97" s="19"/>
+      <c r="CE97" s="19"/>
+      <c r="CF97" s="19"/>
+      <c r="CG97" s="19"/>
+      <c r="CH97" s="19"/>
+      <c r="CI97" s="19"/>
+      <c r="CJ97" s="19"/>
+      <c r="CK97" s="19"/>
+      <c r="CL97" s="19"/>
+      <c r="CM97" s="19"/>
+      <c r="CN97" s="19"/>
+      <c r="CO97" s="19"/>
+      <c r="CP97" s="19"/>
+      <c r="CQ97" s="19"/>
+      <c r="CR97" s="19"/>
+      <c r="CS97" s="19"/>
+      <c r="CT97" s="19"/>
+      <c r="CU97" s="19"/>
+      <c r="CV97" s="19"/>
+      <c r="CW97" s="19"/>
+      <c r="CX97" s="19"/>
+      <c r="CY97" s="19"/>
+      <c r="CZ97" s="19"/>
+      <c r="DA97" s="19"/>
+      <c r="DB97" s="19"/>
+      <c r="DC97" s="19"/>
+      <c r="DD97" s="19"/>
+      <c r="DE97" s="19"/>
+      <c r="DF97" s="19"/>
+      <c r="DG97" s="19"/>
+      <c r="DH97" s="19"/>
+      <c r="DI97" s="19"/>
+      <c r="DJ97" s="19"/>
+      <c r="DK97" s="19"/>
+      <c r="DL97" s="19"/>
+      <c r="DM97" s="19"/>
+      <c r="DN97" s="20"/>
     </row>
-    <row r="98" spans="2:118" s="22" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="24"/>
-      <c r="Y98" s="24"/>
-      <c r="Z98" s="24"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
-      <c r="AF98" s="24"/>
-      <c r="AG98" s="24"/>
-      <c r="AH98" s="24"/>
-      <c r="AI98" s="24"/>
-      <c r="AJ98" s="24"/>
-      <c r="AK98" s="24"/>
-      <c r="AL98" s="24"/>
-      <c r="AM98" s="24"/>
-      <c r="AN98" s="24"/>
-      <c r="AO98" s="24"/>
-      <c r="AP98" s="24"/>
-      <c r="AQ98" s="24"/>
-      <c r="AR98" s="24"/>
-      <c r="AS98" s="24"/>
-      <c r="AT98" s="24"/>
-      <c r="AU98" s="24"/>
-      <c r="AV98" s="24"/>
-      <c r="AW98" s="24"/>
-      <c r="AX98" s="24"/>
-      <c r="AY98" s="24"/>
-      <c r="AZ98" s="24"/>
-      <c r="BA98" s="24"/>
-      <c r="BB98" s="24"/>
-      <c r="BC98" s="24"/>
-      <c r="BD98" s="24"/>
-      <c r="BE98" s="24"/>
-      <c r="BF98" s="24"/>
-      <c r="BG98" s="24"/>
-      <c r="BH98" s="24"/>
-      <c r="BI98" s="24"/>
-      <c r="BJ98" s="24"/>
-      <c r="BK98" s="24"/>
-      <c r="BL98" s="24"/>
-      <c r="BM98" s="24"/>
-      <c r="BN98" s="24"/>
-      <c r="BO98" s="24"/>
-      <c r="BP98" s="24"/>
-      <c r="BQ98" s="24"/>
-      <c r="BR98" s="24"/>
-      <c r="BS98" s="24"/>
-      <c r="BT98" s="24"/>
-      <c r="BU98" s="24"/>
-      <c r="BV98" s="24"/>
-      <c r="BW98" s="24"/>
-      <c r="BX98" s="24"/>
-      <c r="BY98" s="24"/>
-      <c r="BZ98" s="24"/>
-      <c r="CA98" s="24"/>
-      <c r="CB98" s="24"/>
-      <c r="CC98" s="24"/>
-      <c r="CD98" s="24"/>
-      <c r="CE98" s="24"/>
-      <c r="CF98" s="24"/>
-      <c r="CG98" s="24"/>
-      <c r="CH98" s="24"/>
-      <c r="CI98" s="24"/>
-      <c r="CJ98" s="24"/>
-      <c r="CK98" s="24"/>
-      <c r="CL98" s="24"/>
-      <c r="CM98" s="24"/>
-      <c r="CN98" s="24"/>
-      <c r="CO98" s="24"/>
-      <c r="CP98" s="24"/>
-      <c r="CQ98" s="24"/>
-      <c r="CR98" s="24"/>
-      <c r="CS98" s="24"/>
-      <c r="CT98" s="24"/>
-      <c r="CU98" s="24"/>
-      <c r="CV98" s="24"/>
-      <c r="CW98" s="24"/>
-      <c r="CX98" s="24"/>
-      <c r="CY98" s="24"/>
-      <c r="CZ98" s="24"/>
-      <c r="DA98" s="24"/>
-      <c r="DB98" s="24"/>
-      <c r="DC98" s="24"/>
-      <c r="DD98" s="24"/>
-      <c r="DE98" s="24"/>
-      <c r="DF98" s="24"/>
-      <c r="DG98" s="24"/>
-      <c r="DH98" s="24"/>
-      <c r="DI98" s="24"/>
-      <c r="DJ98" s="24"/>
-      <c r="DK98" s="24"/>
-      <c r="DL98" s="24"/>
-      <c r="DM98" s="24"/>
-      <c r="DN98" s="25"/>
+    <row r="98" spans="2:118" s="21" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="22"/>
+      <c r="DN98" s="23"/>
     </row>
-    <row r="99" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="23"/>
-      <c r="C99" s="24" t="s">
+    <row r="99" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="22"/>
+      <c r="C99" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="24"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-      <c r="W99" s="24"/>
-      <c r="X99" s="24" t="s">
+      <c r="X99" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y99" s="24"/>
-      <c r="Z99" s="24"/>
-      <c r="AA99" s="24"/>
-      <c r="AB99" s="24"/>
-      <c r="AC99" s="24"/>
-      <c r="AD99" s="24"/>
-      <c r="AE99" s="24"/>
-      <c r="AF99" s="24"/>
-      <c r="AG99" s="24"/>
-      <c r="AH99" s="24"/>
-      <c r="AI99" s="24"/>
-      <c r="AJ99" s="24"/>
-      <c r="AK99" s="24"/>
-      <c r="AL99" s="24"/>
-      <c r="AM99" s="24"/>
-      <c r="AN99" s="24"/>
-      <c r="AO99" s="24"/>
-      <c r="AP99" s="24"/>
-      <c r="AQ99" s="24"/>
-      <c r="AR99" s="24"/>
-      <c r="AS99" s="24"/>
-      <c r="AT99" s="24"/>
-      <c r="AU99" s="24"/>
-      <c r="AV99" s="24"/>
-      <c r="AW99" s="24"/>
-      <c r="AX99" s="24"/>
-      <c r="AY99" s="24" t="s">
+      <c r="AY99" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AZ99" s="24"/>
-      <c r="BA99" s="24"/>
-      <c r="BB99" s="24"/>
-      <c r="BC99" s="24"/>
-      <c r="BD99" s="24"/>
-      <c r="BE99" s="24"/>
-      <c r="BF99" s="24"/>
-      <c r="BG99" s="24"/>
-      <c r="BH99" s="24"/>
-      <c r="BI99" s="24"/>
-      <c r="BJ99" s="24"/>
-      <c r="BK99" s="24"/>
-      <c r="BL99" s="24"/>
-      <c r="BM99" s="24"/>
-      <c r="BN99" s="24"/>
-      <c r="BO99" s="24"/>
-      <c r="BP99" s="24"/>
-      <c r="BQ99" s="24"/>
-      <c r="BT99" s="24" t="s">
+      <c r="BT99" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BU99" s="24"/>
-      <c r="BV99" s="24"/>
-      <c r="BW99" s="24"/>
-      <c r="BX99" s="24"/>
-      <c r="BY99" s="24"/>
-      <c r="BZ99" s="24"/>
-      <c r="CA99" s="24"/>
-      <c r="CB99" s="24"/>
-      <c r="CC99" s="24"/>
-      <c r="CD99" s="24"/>
-      <c r="CE99" s="24"/>
-      <c r="CF99" s="24"/>
-      <c r="CG99" s="24"/>
-      <c r="CH99" s="24"/>
-      <c r="CI99" s="24"/>
-      <c r="CJ99" s="24"/>
-      <c r="CK99" s="24"/>
-      <c r="CL99" s="24"/>
-      <c r="CM99" s="24"/>
-      <c r="CN99" s="24"/>
-      <c r="CO99" s="24"/>
-      <c r="CP99" s="24"/>
-      <c r="CQ99" s="24"/>
-      <c r="CR99" s="24"/>
-      <c r="CS99" s="24"/>
-      <c r="CT99" s="24"/>
-      <c r="CU99" s="24"/>
-      <c r="CV99" s="24"/>
-      <c r="CW99" s="24"/>
-      <c r="CX99" s="24"/>
-      <c r="CY99" s="24"/>
-      <c r="CZ99" s="24"/>
-      <c r="DA99" s="24" t="s">
+      <c r="DA99" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="DD99" s="24"/>
-      <c r="DE99" s="24"/>
-      <c r="DG99" s="24"/>
-      <c r="DH99" s="24"/>
-      <c r="DI99" s="24"/>
-      <c r="DJ99" s="24"/>
-      <c r="DK99" s="24"/>
-      <c r="DL99" s="24"/>
-      <c r="DM99" s="24"/>
-      <c r="DN99" s="25"/>
+      <c r="DN99" s="23"/>
     </row>
-    <row r="100" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="23"/>
-      <c r="C100" s="24" t="s">
+    <row r="100" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="22"/>
+      <c r="C100" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24"/>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="24"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="24"/>
-      <c r="AH100" s="24"/>
-      <c r="AI100" s="24"/>
-      <c r="AJ100" s="24"/>
-      <c r="AK100" s="24"/>
-      <c r="AL100" s="24"/>
-      <c r="AM100" s="24"/>
-      <c r="AN100" s="24"/>
-      <c r="AO100" s="24"/>
-      <c r="AP100" s="24"/>
-      <c r="AQ100" s="24"/>
-      <c r="AR100" s="24"/>
-      <c r="AS100" s="24"/>
-      <c r="AT100" s="24"/>
-      <c r="AU100" s="24"/>
-      <c r="AV100" s="24"/>
-      <c r="AW100" s="24"/>
-      <c r="AX100" s="24"/>
-      <c r="AY100" s="24"/>
-      <c r="AZ100" s="24"/>
-      <c r="BA100" s="24"/>
-      <c r="BB100" s="24"/>
-      <c r="BC100" s="24"/>
-      <c r="BD100" s="24"/>
-      <c r="BE100" s="24"/>
-      <c r="BF100" s="24"/>
-      <c r="BG100" s="24"/>
-      <c r="BH100" s="24"/>
-      <c r="BI100" s="24"/>
-      <c r="BJ100" s="24"/>
-      <c r="BK100" s="24"/>
-      <c r="BL100" s="24"/>
-      <c r="BM100" s="24"/>
-      <c r="BN100" s="24"/>
-      <c r="BO100" s="24"/>
-      <c r="BP100" s="24"/>
-      <c r="BQ100" s="24"/>
-      <c r="BR100" s="24"/>
-      <c r="BS100" s="24"/>
-      <c r="BT100" s="24"/>
-      <c r="BU100" s="24"/>
-      <c r="BV100" s="24"/>
-      <c r="BW100" s="24"/>
-      <c r="BX100" s="24"/>
-      <c r="BY100" s="24"/>
-      <c r="BZ100" s="24"/>
-      <c r="CA100" s="24"/>
-      <c r="CB100" s="24"/>
-      <c r="CC100" s="24"/>
-      <c r="CD100" s="24"/>
-      <c r="CE100" s="24"/>
-      <c r="CF100" s="24"/>
-      <c r="CG100" s="24"/>
-      <c r="CH100" s="24"/>
-      <c r="CI100" s="24"/>
-      <c r="CJ100" s="24"/>
-      <c r="CK100" s="24"/>
-      <c r="CL100" s="24"/>
-      <c r="CM100" s="24"/>
-      <c r="CN100" s="24"/>
-      <c r="CO100" s="24"/>
-      <c r="CP100" s="24"/>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="24"/>
-      <c r="CU100" s="24"/>
-      <c r="CV100" s="24"/>
-      <c r="CW100" s="24"/>
-      <c r="CX100" s="24"/>
-      <c r="CY100" s="24"/>
-      <c r="CZ100" s="24"/>
-      <c r="DA100" s="24"/>
-      <c r="DB100" s="24" t="s">
+      <c r="DB100" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="DE100" s="24"/>
-      <c r="DG100" s="24"/>
-      <c r="DH100" s="24"/>
-      <c r="DI100" s="24"/>
-      <c r="DJ100" s="24"/>
-      <c r="DK100" s="24"/>
-      <c r="DL100" s="24"/>
-      <c r="DM100" s="24"/>
-      <c r="DN100" s="25"/>
+      <c r="DN100" s="23"/>
     </row>
-    <row r="101" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="24"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="24"/>
-      <c r="AC101" s="24"/>
-      <c r="AD101" s="24"/>
-      <c r="AE101" s="24"/>
-      <c r="AF101" s="24"/>
-      <c r="AG101" s="24"/>
-      <c r="AH101" s="24"/>
-      <c r="AI101" s="24"/>
-      <c r="AJ101" s="24"/>
-      <c r="AK101" s="24"/>
-      <c r="AL101" s="24"/>
-      <c r="AM101" s="24"/>
-      <c r="AN101" s="24"/>
-      <c r="AO101" s="24"/>
-      <c r="AP101" s="24"/>
-      <c r="AQ101" s="24"/>
-      <c r="AR101" s="24"/>
-      <c r="AS101" s="24"/>
-      <c r="AT101" s="24"/>
-      <c r="AU101" s="24"/>
-      <c r="AV101" s="24"/>
-      <c r="AW101" s="24"/>
-      <c r="AX101" s="24"/>
-      <c r="AY101" s="24"/>
-      <c r="AZ101" s="24"/>
-      <c r="BA101" s="24"/>
-      <c r="BB101" s="24"/>
-      <c r="BC101" s="24"/>
-      <c r="BD101" s="24"/>
-      <c r="BE101" s="24"/>
-      <c r="BF101" s="24"/>
-      <c r="BG101" s="24"/>
-      <c r="BH101" s="24"/>
-      <c r="BI101" s="24"/>
-      <c r="BJ101" s="24"/>
-      <c r="BK101" s="24"/>
-      <c r="BL101" s="24"/>
-      <c r="BM101" s="24"/>
-      <c r="BN101" s="24"/>
-      <c r="BO101" s="24"/>
-      <c r="BP101" s="24"/>
-      <c r="BQ101" s="24"/>
-      <c r="BR101" s="24"/>
-      <c r="BS101" s="24"/>
-      <c r="BT101" s="24"/>
-      <c r="BU101" s="24"/>
-      <c r="BV101" s="24"/>
-      <c r="BW101" s="24"/>
-      <c r="BX101" s="24"/>
-      <c r="BY101" s="24"/>
-      <c r="BZ101" s="24"/>
-      <c r="CA101" s="24"/>
-      <c r="CB101" s="24"/>
-      <c r="CC101" s="24"/>
-      <c r="CD101" s="24"/>
-      <c r="CE101" s="24"/>
-      <c r="CF101" s="24"/>
-      <c r="CG101" s="24"/>
-      <c r="CH101" s="24"/>
-      <c r="CI101" s="24"/>
-      <c r="CJ101" s="24"/>
-      <c r="CK101" s="24"/>
-      <c r="CL101" s="24"/>
-      <c r="CM101" s="24"/>
-      <c r="CN101" s="24"/>
-      <c r="CO101" s="24"/>
-      <c r="CP101" s="24"/>
-      <c r="CQ101" s="24"/>
-      <c r="CR101" s="24"/>
-      <c r="CS101" s="24"/>
-      <c r="CT101" s="24"/>
-      <c r="CU101" s="24"/>
-      <c r="CV101" s="24"/>
-      <c r="CW101" s="24"/>
-      <c r="CX101" s="24"/>
-      <c r="CY101" s="24"/>
-      <c r="CZ101" s="24"/>
-      <c r="DA101" s="24"/>
-      <c r="DB101" s="24" t="s">
+    <row r="101" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="22"/>
+      <c r="DB101" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="DE101" s="24"/>
-      <c r="DG101" s="24"/>
-      <c r="DH101" s="24"/>
-      <c r="DI101" s="24"/>
-      <c r="DJ101" s="24"/>
-      <c r="DK101" s="24"/>
-      <c r="DL101" s="24"/>
-      <c r="DM101" s="24"/>
-      <c r="DN101" s="25"/>
+      <c r="DN101" s="23"/>
     </row>
-    <row r="102" spans="2:118" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="27"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="27"/>
-      <c r="AE102" s="27"/>
-      <c r="AF102" s="27"/>
-      <c r="AG102" s="27"/>
-      <c r="AH102" s="27"/>
-      <c r="AI102" s="27"/>
-      <c r="AJ102" s="27"/>
-      <c r="AK102" s="27"/>
-      <c r="AL102" s="27"/>
-      <c r="AM102" s="27"/>
-      <c r="AN102" s="27"/>
-      <c r="AO102" s="27"/>
-      <c r="AP102" s="27"/>
-      <c r="AQ102" s="27"/>
-      <c r="AR102" s="27"/>
-      <c r="AS102" s="27"/>
-      <c r="AT102" s="27"/>
-      <c r="AU102" s="27"/>
-      <c r="AV102" s="27"/>
-      <c r="AW102" s="27"/>
-      <c r="AX102" s="27"/>
-      <c r="AY102" s="27"/>
-      <c r="AZ102" s="27"/>
-      <c r="BA102" s="27"/>
-      <c r="BB102" s="27"/>
-      <c r="BC102" s="27"/>
-      <c r="BD102" s="27"/>
-      <c r="BE102" s="27"/>
-      <c r="BF102" s="27"/>
-      <c r="BG102" s="27"/>
-      <c r="BH102" s="27"/>
-      <c r="BI102" s="27"/>
-      <c r="BJ102" s="27"/>
-      <c r="BK102" s="27"/>
-      <c r="BL102" s="27"/>
-      <c r="BM102" s="27"/>
-      <c r="BN102" s="27"/>
-      <c r="BO102" s="27"/>
-      <c r="BP102" s="27"/>
-      <c r="BQ102" s="27"/>
-      <c r="BR102" s="27"/>
-      <c r="BS102" s="27"/>
-      <c r="BT102" s="27"/>
-      <c r="BU102" s="27"/>
-      <c r="BV102" s="27"/>
-      <c r="BW102" s="27"/>
-      <c r="BX102" s="27"/>
-      <c r="BY102" s="27"/>
-      <c r="BZ102" s="27"/>
-      <c r="CA102" s="27"/>
-      <c r="CB102" s="27"/>
-      <c r="CC102" s="27"/>
-      <c r="CD102" s="27"/>
-      <c r="CE102" s="27"/>
-      <c r="CF102" s="27"/>
-      <c r="CG102" s="27"/>
-      <c r="CH102" s="27"/>
-      <c r="CI102" s="27"/>
-      <c r="CJ102" s="27"/>
-      <c r="CK102" s="27"/>
-      <c r="CL102" s="27"/>
-      <c r="CM102" s="27"/>
-      <c r="CN102" s="27"/>
-      <c r="CO102" s="27"/>
-      <c r="CP102" s="27"/>
-      <c r="CQ102" s="27"/>
-      <c r="CR102" s="27"/>
-      <c r="CS102" s="27"/>
-      <c r="CT102" s="27"/>
-      <c r="CU102" s="27"/>
-      <c r="CV102" s="27"/>
-      <c r="CW102" s="27"/>
-      <c r="CX102" s="27"/>
-      <c r="CY102" s="27"/>
-      <c r="CZ102" s="27"/>
-      <c r="DA102" s="27"/>
-      <c r="DB102" s="27"/>
-      <c r="DC102" s="27"/>
-      <c r="DD102" s="27"/>
-      <c r="DE102" s="27"/>
-      <c r="DF102" s="27"/>
-      <c r="DG102" s="27"/>
-      <c r="DH102" s="27"/>
-      <c r="DI102" s="27"/>
-      <c r="DJ102" s="27"/>
-      <c r="DK102" s="27"/>
-      <c r="DL102" s="27"/>
-      <c r="DM102" s="27"/>
-      <c r="DN102" s="28"/>
+    <row r="102" spans="2:118" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="25"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="25"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="25"/>
+      <c r="AH102" s="25"/>
+      <c r="AI102" s="25"/>
+      <c r="AJ102" s="25"/>
+      <c r="AK102" s="25"/>
+      <c r="AL102" s="25"/>
+      <c r="AM102" s="25"/>
+      <c r="AN102" s="25"/>
+      <c r="AO102" s="25"/>
+      <c r="AP102" s="25"/>
+      <c r="AQ102" s="25"/>
+      <c r="AR102" s="25"/>
+      <c r="AS102" s="25"/>
+      <c r="AT102" s="25"/>
+      <c r="AU102" s="25"/>
+      <c r="AV102" s="25"/>
+      <c r="AW102" s="25"/>
+      <c r="AX102" s="25"/>
+      <c r="AY102" s="25"/>
+      <c r="AZ102" s="25"/>
+      <c r="BA102" s="25"/>
+      <c r="BB102" s="25"/>
+      <c r="BC102" s="25"/>
+      <c r="BD102" s="25"/>
+      <c r="BE102" s="25"/>
+      <c r="BF102" s="25"/>
+      <c r="BG102" s="25"/>
+      <c r="BH102" s="25"/>
+      <c r="BI102" s="25"/>
+      <c r="BJ102" s="25"/>
+      <c r="BK102" s="25"/>
+      <c r="BL102" s="25"/>
+      <c r="BM102" s="25"/>
+      <c r="BN102" s="25"/>
+      <c r="BO102" s="25"/>
+      <c r="BP102" s="25"/>
+      <c r="BQ102" s="25"/>
+      <c r="BR102" s="25"/>
+      <c r="BS102" s="25"/>
+      <c r="BT102" s="25"/>
+      <c r="BU102" s="25"/>
+      <c r="BV102" s="25"/>
+      <c r="BW102" s="25"/>
+      <c r="BX102" s="25"/>
+      <c r="BY102" s="25"/>
+      <c r="BZ102" s="25"/>
+      <c r="CA102" s="25"/>
+      <c r="CB102" s="25"/>
+      <c r="CC102" s="25"/>
+      <c r="CD102" s="25"/>
+      <c r="CE102" s="25"/>
+      <c r="CF102" s="25"/>
+      <c r="CG102" s="25"/>
+      <c r="CH102" s="25"/>
+      <c r="CI102" s="25"/>
+      <c r="CJ102" s="25"/>
+      <c r="CK102" s="25"/>
+      <c r="CL102" s="25"/>
+      <c r="CM102" s="25"/>
+      <c r="CN102" s="25"/>
+      <c r="CO102" s="25"/>
+      <c r="CP102" s="25"/>
+      <c r="CQ102" s="25"/>
+      <c r="CR102" s="25"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="25"/>
+      <c r="CU102" s="25"/>
+      <c r="CV102" s="25"/>
+      <c r="CW102" s="25"/>
+      <c r="CX102" s="25"/>
+      <c r="CY102" s="25"/>
+      <c r="CZ102" s="25"/>
+      <c r="DA102" s="25"/>
+      <c r="DB102" s="25"/>
+      <c r="DC102" s="25"/>
+      <c r="DD102" s="25"/>
+      <c r="DE102" s="25"/>
+      <c r="DF102" s="25"/>
+      <c r="DG102" s="25"/>
+      <c r="DH102" s="25"/>
+      <c r="DI102" s="25"/>
+      <c r="DJ102" s="25"/>
+      <c r="DK102" s="25"/>
+      <c r="DL102" s="25"/>
+      <c r="DM102" s="25"/>
+      <c r="DN102" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="57" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>